--- a/raw_data/UNI-USD_4h_process.xlsx
+++ b/raw_data/UNI-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,16 +1014,16 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.0002175533445551</v>
+        <v>0.0002148907806258</v>
       </c>
       <c r="C2">
-        <v>0.0002181995223509</v>
+        <v>0.0002169658546335</v>
       </c>
       <c r="D2">
-        <v>0.0002167370257666</v>
+        <v>0.0002116873656632</v>
       </c>
       <c r="E2">
-        <v>0.0002171544037992</v>
+        <v>0.0002132463705493</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.0002172281383536</v>
+        <v>0.0002132460940629</v>
       </c>
       <c r="C3">
-        <v>0.000218873101403</v>
+        <v>0.0002148480270989</v>
       </c>
       <c r="D3">
-        <v>0.0002168434584746</v>
+        <v>0.000213138264371</v>
       </c>
       <c r="E3">
-        <v>0.0002172454551327</v>
+        <v>0.0002141737058991</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.0002171938249375</v>
+        <v>0.0002142246376024</v>
       </c>
       <c r="C4">
-        <v>0.0002180827868869</v>
+        <v>0.0002161222946597</v>
       </c>
       <c r="D4">
-        <v>0.0002146658516721</v>
+        <v>0.0002135537215508</v>
       </c>
       <c r="E4">
-        <v>0.0002152490924345</v>
+        <v>0.000215825610212</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.0002153096575057</v>
+        <v>0.0002157517446903</v>
       </c>
       <c r="C5">
-        <v>0.0002160439471481</v>
+        <v>0.0002164417819585</v>
       </c>
       <c r="D5">
-        <v>0.0002147606137441</v>
+        <v>0.0002145894395653</v>
       </c>
       <c r="E5">
-        <v>0.0002155521942768</v>
+        <v>0.0002145894395653</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1094,16 +1094,16 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.0002155374531866</v>
+        <v>0.0002142152225133</v>
       </c>
       <c r="C6">
-        <v>0.0002157808339688</v>
+        <v>0.0002163090684916</v>
       </c>
       <c r="D6">
-        <v>0.0002124107559211</v>
+        <v>0.0002140584256267</v>
       </c>
       <c r="E6">
-        <v>0.0002124660823028</v>
+        <v>0.000216085842112</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.0002124587772414</v>
+        <v>0.0002160775329684</v>
       </c>
       <c r="C7">
-        <v>0.0002132638473995</v>
+        <v>0.0002212622348451</v>
       </c>
       <c r="D7">
-        <v>0.0002117896656272</v>
+        <v>0.0002160022268071</v>
       </c>
       <c r="E7">
-        <v>0.0002132557565346</v>
+        <v>0.0002202648029197</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.0002132353984052</v>
+        <v>0.0002204499178333</v>
       </c>
       <c r="C8">
-        <v>0.0002138921554433</v>
+        <v>0.0002219828165834</v>
       </c>
       <c r="D8">
-        <v>0.0002121781581081</v>
+        <v>0.0002193855325458</v>
       </c>
       <c r="E8">
-        <v>0.0002132269582943</v>
+        <v>0.0002202448813477</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>0.0002132027730112</v>
+        <v>0.0002201390016125</v>
       </c>
       <c r="C9">
-        <v>0.0002138847776222</v>
+        <v>0.0002238188462797</v>
       </c>
       <c r="D9">
-        <v>0.000211314385524</v>
+        <v>0.0002198644069721</v>
       </c>
       <c r="E9">
-        <v>0.0002137353149009</v>
+        <v>0.0002209916274296</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,16 +1174,16 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>0.0002137485425919</v>
+        <v>0.0002208583900937</v>
       </c>
       <c r="C10">
-        <v>0.0002138543641194</v>
+        <v>0.0002214097039541</v>
       </c>
       <c r="D10">
-        <v>0.000211698381463</v>
+        <v>0.0002160232543246</v>
       </c>
       <c r="E10">
-        <v>0.0002118584816344</v>
+        <v>0.0002177160786231</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>0.000211666119867</v>
+        <v>0.0002175472764065</v>
       </c>
       <c r="C11">
-        <v>0.0002145605540135</v>
+        <v>0.0002196048153564</v>
       </c>
       <c r="D11">
-        <v>0.000211666119867</v>
+        <v>0.0002168015489587</v>
       </c>
       <c r="E11">
-        <v>0.0002144332975149</v>
+        <v>0.0002190567320212</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>46.07889629686618</v>
+        <v>64.61478169981633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>0.0002146108308807</v>
+        <v>0.0002190980740124</v>
       </c>
       <c r="C12">
-        <v>0.0002153492241632</v>
+        <v>0.0002211116661783</v>
       </c>
       <c r="D12">
-        <v>0.0002116804389515</v>
+        <v>0.0002182004827773</v>
       </c>
       <c r="E12">
-        <v>0.0002116804389515</v>
+        <v>0.0002191183011746</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>33.13850851017349</v>
+        <v>64.85840890107512</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>0.0002116254909196</v>
+        <v>0.0002189327933592</v>
       </c>
       <c r="C13">
-        <v>0.0002116254909196</v>
+        <v>0.0002205450728069</v>
       </c>
       <c r="D13">
-        <v>0.0002090902999043</v>
+        <v>0.0002174135006498</v>
       </c>
       <c r="E13">
-        <v>0.0002108636253979</v>
+        <v>0.0002174135006498</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>30.29827118395135</v>
+        <v>53.4046968204674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,25 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>0.0002107842738041</v>
+        <v>0.0002175625559175</v>
       </c>
       <c r="C14">
-        <v>0.0002109332854161</v>
+        <v>0.0002189517399528</v>
       </c>
       <c r="D14">
-        <v>0.0002082630380755</v>
+        <v>0.0002163421740988</v>
       </c>
       <c r="E14">
-        <v>0.000210408878047</v>
+        <v>0.0002179487928515</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>28.75468780277573</v>
-      </c>
-      <c r="N14" t="s">
-        <v>195</v>
+        <v>56.1406699836813</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1289,25 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>0.000210514277569</v>
+        <v>0.0002181913296226</v>
       </c>
       <c r="C15">
-        <v>0.0002110940258717</v>
+        <v>0.0002213765110354</v>
       </c>
       <c r="D15">
-        <v>0.0002094530791509</v>
+        <v>0.0002181913296226</v>
       </c>
       <c r="E15">
-        <v>0.0002098463301081</v>
+        <v>0.0002207635407103</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.85092277837238</v>
-      </c>
-      <c r="N15" t="s">
-        <v>195</v>
+        <v>67.44777591911102</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1315,28 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>0.0002100310084642</v>
+        <v>0.0002207760699093</v>
       </c>
       <c r="C16">
-        <v>0.0002107665786752</v>
+        <v>0.0002209644153481</v>
       </c>
       <c r="D16">
-        <v>0.0002099100820487</v>
+        <v>0.0002193930413341</v>
       </c>
       <c r="E16">
-        <v>0.0002099559496855</v>
+        <v>0.0002199439331889</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>27.89741648612907</v>
+        <v>62.19527853097711</v>
       </c>
       <c r="M16">
-        <v>27.94887875226894</v>
-      </c>
-      <c r="N16" t="s">
-        <v>195</v>
+        <v>63.38221837543282</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1344,28 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>0.0002099015400744</v>
+        <v>0.0002198973525082</v>
       </c>
       <c r="C17">
-        <v>0.0002099967387039</v>
+        <v>0.0002199577575083</v>
       </c>
       <c r="D17">
-        <v>0.0002079556870739</v>
+        <v>0.0002174159453716</v>
       </c>
       <c r="E17">
-        <v>0.000209629186429</v>
+        <v>0.0002182278403779</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>26.62027806103484</v>
+        <v>52.55481187709333</v>
       </c>
       <c r="M17">
-        <v>26.98853193489907</v>
-      </c>
-      <c r="N17" t="s">
-        <v>195</v>
+        <v>55.610614870275</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1373,25 +1361,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>0.0002096277021337</v>
+        <v>0.0002185164921684</v>
       </c>
       <c r="C18">
-        <v>0.000212072089198</v>
+        <v>0.0002189016522606</v>
       </c>
       <c r="D18">
-        <v>0.0002095973177347</v>
+        <v>0.0002180773881264</v>
       </c>
       <c r="E18">
-        <v>0.000212072089198</v>
+        <v>0.0002184173645218</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>47.01956524131101</v>
+        <v>53.4512593951908</v>
       </c>
       <c r="M18">
-        <v>42.80984816058738</v>
+        <v>56.24864785977745</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1399,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.0002119325945386</v>
+        <v>0.0002184738987125</v>
       </c>
       <c r="C19">
-        <v>0.0002128724736394</v>
+        <v>0.0002196735003963</v>
       </c>
       <c r="D19">
-        <v>0.0002116376708727</v>
+        <v>0.000217890163185</v>
       </c>
       <c r="E19">
-        <v>0.0002120476274285</v>
+        <v>0.0002195348642999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>46.87277613825828</v>
+        <v>58.6356140384651</v>
       </c>
       <c r="M19">
-        <v>42.71004416653339</v>
+        <v>59.90788502091898</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1425,25 +1413,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>0.0002118686970788</v>
+        <v>0.000219454683247</v>
       </c>
       <c r="C20">
-        <v>0.0002120058925356</v>
+        <v>0.0002205602941103</v>
       </c>
       <c r="D20">
-        <v>0.0002109633642248</v>
+        <v>0.0002193526743212</v>
       </c>
       <c r="E20">
-        <v>0.0002111328940372</v>
+        <v>0.0002196562563767</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>41.43145255856172</v>
+        <v>59.19105455675939</v>
       </c>
       <c r="M20">
-        <v>39.04436890752918</v>
+        <v>60.29635462300299</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1451,28 +1439,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>0.0002110083441948</v>
+        <v>0.0002196565328631</v>
       </c>
       <c r="C21">
-        <v>0.0002120256394846</v>
+        <v>0.0002198423608206</v>
       </c>
       <c r="D21">
-        <v>0.000210145197343</v>
+        <v>0.0002188849030062</v>
       </c>
       <c r="E21">
-        <v>0.0002107349719153</v>
+        <v>0.0002197700523538</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.000212627451401155</v>
+        <v>0.00021814947685921</v>
       </c>
       <c r="L21">
-        <v>39.2041850552821</v>
+        <v>59.76088867253935</v>
       </c>
       <c r="M21">
-        <v>37.53515627901369</v>
+        <v>60.68096603274742</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1480,31 +1468,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.0002108051703544</v>
+        <v>0.0002199762966483</v>
       </c>
       <c r="C22">
-        <v>0.0002131020009983</v>
+        <v>0.0002212647523265</v>
       </c>
       <c r="D22">
-        <v>0.0002108051703544</v>
+        <v>0.0002194614207837</v>
       </c>
       <c r="E22">
-        <v>0.0002123016456607</v>
+        <v>0.0002199910522904</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0002126119368420857</v>
+        <v>0.0002182371709273619</v>
       </c>
       <c r="H22">
-        <v>0.00021238481349423</v>
+        <v>0.000218486710946265</v>
       </c>
       <c r="L22">
-        <v>50.89622099458997</v>
+        <v>60.95215244871498</v>
       </c>
       <c r="M22">
-        <v>46.33105545644513</v>
+        <v>61.46175494559129</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1512,31 +1500,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.000212566461414</v>
+        <v>0.0002199791488237</v>
       </c>
       <c r="C23">
-        <v>0.0002138097333954</v>
+        <v>0.0002205539785791</v>
       </c>
       <c r="D23">
-        <v>0.0002119438431691</v>
+        <v>0.0002195435808971</v>
       </c>
       <c r="E23">
-        <v>0.0002126642502844</v>
+        <v>0.0002205341879744</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0002126166926095688</v>
+        <v>0.0002184459906589108</v>
       </c>
       <c r="H23">
-        <v>0.000212155753251815</v>
+        <v>0.00021880473505003</v>
       </c>
       <c r="L23">
-        <v>53.23785068542432</v>
+        <v>63.90647282682547</v>
       </c>
       <c r="M23">
-        <v>48.15086345185731</v>
+        <v>63.38607774261647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1544,31 +1532,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.0002126434264937</v>
+        <v>0.0002204479242209</v>
       </c>
       <c r="C24">
-        <v>0.0002130291250068</v>
+        <v>0.0002209092781413</v>
       </c>
       <c r="D24">
-        <v>0.0002120505960192</v>
+        <v>0.0002195965789724</v>
       </c>
       <c r="E24">
-        <v>0.0002123639278579</v>
+        <v>0.0002204537013312</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0002125937139957807</v>
+        <v>0.0002186285098109371</v>
       </c>
       <c r="H24">
-        <v>0.000212011495022985</v>
+        <v>0.00021903613960599</v>
       </c>
       <c r="L24">
-        <v>50.97294573552697</v>
+        <v>63.11044231320833</v>
       </c>
       <c r="M24">
-        <v>46.73733179434723</v>
+        <v>62.88496782804987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1576,31 +1564,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.0002123747399309</v>
+        <v>0.0002203818439738</v>
       </c>
       <c r="C25">
-        <v>0.0002134414971806</v>
+        <v>0.0002224755444331</v>
       </c>
       <c r="D25">
-        <v>0.0002122854348272</v>
+        <v>0.0002200466551585</v>
       </c>
       <c r="E25">
-        <v>0.0002132438821718</v>
+        <v>0.0002201893221354</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0002126528201936007</v>
+        <v>0.0002187704018404338</v>
       </c>
       <c r="H25">
-        <v>0.000211896079417735</v>
+        <v>0.000219316133734495</v>
       </c>
       <c r="L25">
-        <v>57.00265034127802</v>
+        <v>60.33330124341778</v>
       </c>
       <c r="M25">
-        <v>51.25285129450403</v>
+        <v>61.17418280872024</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1608,31 +1596,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.0002130601787939</v>
+        <v>0.0002202909672632</v>
       </c>
       <c r="C26">
-        <v>0.0002131633809767</v>
+        <v>0.0002213008701801</v>
       </c>
       <c r="D26">
-        <v>0.0002108073240378</v>
+        <v>0.00021934635879</v>
       </c>
       <c r="E26">
-        <v>0.0002113289956469</v>
+        <v>0.0002213008701801</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.000212532472507537</v>
+        <v>0.000219000444416767</v>
       </c>
       <c r="H26">
-        <v>0.00021183922508494</v>
+        <v>0.0002195768851379</v>
       </c>
       <c r="L26">
-        <v>43.81147362016804</v>
+        <v>67.16706431169379</v>
       </c>
       <c r="M26">
-        <v>42.7577714259662</v>
+        <v>65.43218752506561</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1640,31 +1628,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.0002113801019731</v>
+        <v>0.0002211910323239</v>
       </c>
       <c r="C27">
-        <v>0.0002134245150955</v>
+        <v>0.0002213880070485</v>
       </c>
       <c r="D27">
-        <v>0.0002113801019731</v>
+        <v>0.0002184162585763</v>
       </c>
       <c r="E27">
-        <v>0.0002116455725627</v>
+        <v>0.000219196852413</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.0002124518452398245</v>
+        <v>0.0002190182996891519</v>
       </c>
       <c r="H27">
-        <v>0.000211758715886345</v>
+        <v>0.000219523487612565</v>
       </c>
       <c r="L27">
-        <v>46.13006217303863</v>
+        <v>49.13946279041656</v>
       </c>
       <c r="M27">
-        <v>44.39857370910009</v>
+        <v>53.4769544844131</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1672,31 +1660,31 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.0002117375988746</v>
+        <v>0.000219735855353</v>
       </c>
       <c r="C28">
-        <v>0.0002126126782968</v>
+        <v>0.0002197767025791</v>
       </c>
       <c r="D28">
-        <v>0.0002111538051394</v>
+        <v>0.0002163482422474</v>
       </c>
       <c r="E28">
-        <v>0.0002124450838891</v>
+        <v>0.0002177361457142</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.0002124512305715768</v>
+        <v>0.0002189017402368835</v>
       </c>
       <c r="H28">
-        <v>0.000211719622166085</v>
+        <v>0.00021939805083089</v>
       </c>
       <c r="L28">
-        <v>51.78299908082053</v>
+        <v>40.62364092283757</v>
       </c>
       <c r="M28">
-        <v>48.41975092682697</v>
+        <v>47.04974856128993</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1704,31 +1692,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.000212454033317</v>
+        <v>0.000217798151425</v>
       </c>
       <c r="C29">
-        <v>0.0002137976698577</v>
+        <v>0.0002207618526881</v>
       </c>
       <c r="D29">
-        <v>0.0002124253369402</v>
+        <v>0.0002174331311834</v>
       </c>
       <c r="E29">
-        <v>0.0002135221875505</v>
+        <v>0.0002198341244366</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.0002125485902969334</v>
+        <v>0.0002189865024368577</v>
       </c>
       <c r="H29">
-        <v>0.000211708965798565</v>
+        <v>0.00021934017568124</v>
       </c>
       <c r="L29">
-        <v>58.39927971992751</v>
+        <v>53.61289037682423</v>
       </c>
       <c r="M29">
-        <v>53.31793299105352</v>
+        <v>55.35013706435267</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1736,31 +1724,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.000213594714296</v>
+        <v>0.0002199152804678</v>
       </c>
       <c r="C30">
-        <v>0.0002140545111615</v>
+        <v>0.0002219937741756</v>
       </c>
       <c r="D30">
-        <v>0.0002131301298504</v>
+        <v>0.000218799628783</v>
       </c>
       <c r="E30">
-        <v>0.0002140430151484</v>
+        <v>0.0002219937741756</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.0002126844471016122</v>
+        <v>0.0002192598907767434</v>
       </c>
       <c r="H30">
-        <v>0.000211818192474265</v>
+        <v>0.000219554060458865</v>
       </c>
       <c r="L30">
-        <v>61.28888432904417</v>
+        <v>62.98923084751715</v>
       </c>
       <c r="M30">
-        <v>55.51761896062867</v>
+        <v>61.96058835935416</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1768,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>0.0002140256256097</v>
+        <v>0.000223072929657</v>
       </c>
       <c r="C31">
-        <v>0.0002175434492528</v>
+        <v>0.000225742754992</v>
       </c>
       <c r="D31">
-        <v>0.0002136540279025</v>
+        <v>0.0002228025259682</v>
       </c>
       <c r="E31">
-        <v>0.0002175434492528</v>
+        <v>0.000225240321015</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.000213126174569902</v>
+        <v>0.0002198035662529485</v>
       </c>
       <c r="H31">
-        <v>0.00021197370006116</v>
+        <v>0.000219863239908555</v>
       </c>
       <c r="I31">
-        <v>0.0002127883679349433</v>
+        <v>0.0002189819962950033</v>
       </c>
       <c r="L31">
-        <v>74.61885555726727</v>
+        <v>72.41796249472691</v>
       </c>
       <c r="M31">
-        <v>66.83028464187397</v>
+        <v>69.31516676504539</v>
       </c>
       <c r="O31" t="s">
         <v>195</v>
@@ -1806,34 +1794,34 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>0.000217480584979</v>
+        <v>0.0002249555836897</v>
       </c>
       <c r="C32">
-        <v>0.0002205687196692</v>
+        <v>0.000235263389186</v>
       </c>
       <c r="D32">
-        <v>0.0002173803513869</v>
+        <v>0.0002243375784019</v>
       </c>
       <c r="E32">
-        <v>0.0002205687196692</v>
+        <v>0.000234807797824</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.0002138027695789291</v>
+        <v>0.0002211675873048623</v>
       </c>
       <c r="H32">
-        <v>0.000212418114097045</v>
+        <v>0.000220647714741025</v>
       </c>
       <c r="I32">
-        <v>0.0002129021784639433</v>
+        <v>0.0002197007105374933</v>
       </c>
       <c r="L32">
-        <v>80.98508985431074</v>
+        <v>85.04718149506603</v>
       </c>
       <c r="M32">
-        <v>73.1789174254658</v>
+        <v>80.98360296631606</v>
       </c>
       <c r="O32" t="s">
         <v>195</v>
@@ -1844,34 +1832,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>0.000220653208089</v>
+        <v>0.0002353235759073</v>
       </c>
       <c r="C33">
-        <v>0.0002271784323966</v>
+        <v>0.0002361335500609</v>
       </c>
       <c r="D33">
-        <v>0.000220653208089</v>
+        <v>0.0002341551735298</v>
       </c>
       <c r="E33">
-        <v>0.0002271784323966</v>
+        <v>0.0002347318513784</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.00021501873892599</v>
+        <v>0.0002224007022206384</v>
       </c>
       <c r="H33">
-        <v>0.00021323385444698</v>
+        <v>0.000221513632277455</v>
       </c>
       <c r="I33">
-        <v>0.0002132332777060733</v>
+        <v>0.00022038598205347</v>
       </c>
       <c r="L33">
-        <v>88.23708270470641</v>
+        <v>84.70084325873451</v>
       </c>
       <c r="M33">
-        <v>81.50705126282665</v>
+        <v>80.72119850869656</v>
       </c>
       <c r="O33" t="s">
         <v>195</v>
@@ -1882,34 +1870,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.0002271051198476</v>
+        <v>0.0002347318513784</v>
       </c>
       <c r="C34">
-        <v>0.0002275975275551</v>
+        <v>0.0002355822944082</v>
       </c>
       <c r="D34">
-        <v>0.0002259496832266</v>
+        <v>0.0002321594074601</v>
       </c>
       <c r="E34">
-        <v>0.0002274953731102</v>
+        <v>0.0002347513946006</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.0002161529783972819</v>
+        <v>0.0002235234924369986</v>
       </c>
       <c r="H34">
-        <v>0.00021408817920014</v>
+        <v>0.00022235376236491</v>
       </c>
       <c r="I34">
-        <v>0.00021364148706193</v>
+        <v>0.00022101684153309</v>
       </c>
       <c r="L34">
-        <v>88.4742101144202</v>
+        <v>84.71885839514663</v>
       </c>
       <c r="M34">
-        <v>81.79889427248698</v>
+        <v>80.73849419301082</v>
       </c>
       <c r="O34" t="s">
         <v>195</v>
@@ -1920,34 +1908,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.0002274774451507</v>
+        <v>0.0002348445414099</v>
       </c>
       <c r="C35">
-        <v>0.0002291338169015</v>
+        <v>0.0002348445414099</v>
       </c>
       <c r="D35">
-        <v>0.0002266591909574</v>
+        <v>0.0002331302239326</v>
       </c>
       <c r="E35">
-        <v>0.0002266591909574</v>
+        <v>0.0002344012027606</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.0002171080886300199</v>
+        <v>0.0002245123751936896</v>
       </c>
       <c r="H35">
-        <v>0.000214928822242605</v>
+        <v>0.000223035645467425</v>
       </c>
       <c r="I35">
-        <v>0.0002140117202846167</v>
+        <v>0.0002216772336396</v>
       </c>
       <c r="L35">
-        <v>83.4793735747688</v>
+        <v>82.75448529842085</v>
       </c>
       <c r="M35">
-        <v>78.28855608466561</v>
+        <v>79.36451977499713</v>
       </c>
       <c r="O35" t="s">
         <v>195</v>
@@ -1958,34 +1946,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.0002271158155053</v>
+        <v>0.0002342424413654</v>
       </c>
       <c r="C36">
-        <v>0.0002288893738295</v>
+        <v>0.0002344082313356</v>
       </c>
       <c r="D36">
-        <v>0.0002250071847811</v>
+        <v>0.0002322309883311</v>
       </c>
       <c r="E36">
-        <v>0.0002264968206873</v>
+        <v>0.000232959180721</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0002179616097261362</v>
+        <v>0.0002252802666052633</v>
       </c>
       <c r="H36">
-        <v>0.000215755865792695</v>
+        <v>0.00022368640784403</v>
       </c>
       <c r="I36">
-        <v>0.0002144794115641</v>
+        <v>0.0002222396782599</v>
       </c>
       <c r="L36">
-        <v>82.46237911218321</v>
+        <v>74.72766244710881</v>
       </c>
       <c r="M36">
-        <v>77.59223413556498</v>
+        <v>73.79550381231938</v>
       </c>
       <c r="O36" t="s">
         <v>195</v>
@@ -1996,34 +1984,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.0002261904155602</v>
+        <v>0.0002330775168957</v>
       </c>
       <c r="C37">
-        <v>0.0002268149837618</v>
+        <v>0.0002350561408093</v>
       </c>
       <c r="D37">
-        <v>0.000224805320613</v>
+        <v>0.0002317219768883</v>
       </c>
       <c r="E37">
-        <v>0.0002250442921649</v>
+        <v>0.0002341633371543</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.000218605489947842</v>
+        <v>0.0002260878184733575</v>
       </c>
       <c r="H37">
-        <v>0.00021652662107949</v>
+        <v>0.00022448318268285</v>
       </c>
       <c r="I37">
-        <v>0.0002148723627517767</v>
+        <v>0.0002227029627343867</v>
       </c>
       <c r="L37">
-        <v>73.45623762390031</v>
+        <v>76.83817726021351</v>
       </c>
       <c r="M37">
-        <v>71.46833140754815</v>
+        <v>75.35092628431833</v>
       </c>
       <c r="O37" t="s">
         <v>195</v>
@@ -2034,36 +2022,36 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.0002252512640552</v>
+        <v>0.000234473234741</v>
       </c>
       <c r="C38">
-        <v>0.0002260825567645</v>
+        <v>0.0002426764112897</v>
       </c>
       <c r="D38">
-        <v>0.0002237390144728</v>
+        <v>0.0001911990111693</v>
       </c>
       <c r="E38">
-        <v>0.0002248469099868</v>
+        <v>0.0001921597286127</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G38">
-        <v>0.0002191728917695655</v>
+        <v>0.0002230034466678432</v>
       </c>
       <c r="H38">
-        <v>0.00021716536211893</v>
+        <v>0.000223170300887395</v>
       </c>
       <c r="I38">
-        <v>0.00021525969447486</v>
+        <v>0.0002217667909765533</v>
       </c>
       <c r="L38">
-        <v>72.24993531760448</v>
+        <v>17.96471624937263</v>
       </c>
       <c r="M38">
-        <v>70.65230481405868</v>
-      </c>
-      <c r="O38" t="s">
+        <v>23.33008944864712</v>
+      </c>
+      <c r="N38" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2072,36 +2060,36 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.0002247956726932</v>
+        <v>0.0001921091461554</v>
       </c>
       <c r="C39">
-        <v>0.0002269024116685</v>
+        <v>0.0001925777614815</v>
       </c>
       <c r="D39">
-        <v>0.0002246360090794</v>
+        <v>0.000186205637874</v>
       </c>
       <c r="E39">
-        <v>0.0002261798363178</v>
+        <v>0.0001889814739115</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.0002198098867284958</v>
+        <v>0.0002199105400536302</v>
       </c>
       <c r="H39">
-        <v>0.000217871972563395</v>
+        <v>0.000221642631367975</v>
       </c>
       <c r="I39">
-        <v>0.0002156745118554233</v>
+        <v>0.0002206997858592833</v>
       </c>
       <c r="L39">
-        <v>75.32803040370521</v>
+        <v>16.86475551729566</v>
       </c>
       <c r="M39">
-        <v>72.90241674471892</v>
-      </c>
-      <c r="O39" t="s">
+        <v>22.08751511801426</v>
+      </c>
+      <c r="N39" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2110,36 +2098,36 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>0.0002262647321913</v>
+        <v>0.0001890797866508</v>
       </c>
       <c r="C40">
-        <v>0.0002268525568069</v>
+        <v>0.0001895339373731</v>
       </c>
       <c r="D40">
-        <v>0.000225382958888</v>
+        <v>0.0001872611319413</v>
       </c>
       <c r="E40">
-        <v>0.000225382958888</v>
+        <v>0.0001891137217171</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0002203165296520871</v>
+        <v>0.0002171108292957638</v>
       </c>
       <c r="H40">
-        <v>0.000218584475805935</v>
+        <v>0.000220115504634995</v>
       </c>
       <c r="I40">
-        <v>0.0002161253277638766</v>
+        <v>0.0002197463739624167</v>
       </c>
       <c r="L40">
-        <v>70.09847797025085</v>
+        <v>17.10235817531556</v>
       </c>
       <c r="M40">
-        <v>69.47303029397729</v>
-      </c>
-      <c r="O40" t="s">
+        <v>22.27302293342986</v>
+      </c>
+      <c r="N40" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2148,34 +2136,37 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>0.0002252493723062</v>
+        <v>0.0001890579151222</v>
       </c>
       <c r="C41">
-        <v>0.0002272959100082</v>
+        <v>0.0001893297157948</v>
       </c>
       <c r="D41">
-        <v>0.000221204405534</v>
+        <v>0.0001877196773421</v>
       </c>
       <c r="E41">
-        <v>0.000221204405534</v>
+        <v>0.0001877196773421</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.0002203972456413519</v>
+        <v>0.0002144389063908852</v>
       </c>
       <c r="H41">
-        <v>0.00021910794748687</v>
+        <v>0.00021851298588441</v>
       </c>
       <c r="I41">
-        <v>0.0002163510313645134</v>
+        <v>0.0002187018054731134</v>
       </c>
       <c r="L41">
-        <v>49.73150590407546</v>
+        <v>16.54171405490625</v>
       </c>
       <c r="M41">
-        <v>54.89161658524738</v>
+        <v>21.68685173819638</v>
+      </c>
+      <c r="N41" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2183,34 +2174,37 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>0.0002190008963225</v>
+        <v>0.0001877000031527</v>
       </c>
       <c r="C42">
-        <v>0.0002190008963225</v>
+        <v>0.0001880589406937</v>
       </c>
       <c r="D42">
-        <v>0.0002096363896271</v>
+        <v>0.0001856301823863</v>
       </c>
       <c r="E42">
-        <v>0.0002140879660146</v>
+        <v>0.0001856301823863</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.0002198236747661926</v>
+        <v>0.0002118199314813775</v>
       </c>
       <c r="H42">
-        <v>0.000219197263504565</v>
+        <v>0.000216794942389205</v>
       </c>
       <c r="I42">
-        <v>0.0002164312822666167</v>
+        <v>0.0002175855348468367</v>
       </c>
       <c r="L42">
-        <v>31.94711862525644</v>
+        <v>15.67522646044264</v>
       </c>
       <c r="M42">
-        <v>39.6343528024478</v>
+        <v>20.80311464622465</v>
+      </c>
+      <c r="N42" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2218,34 +2212,37 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.0002148907806258</v>
+        <v>0.0001867051032604</v>
       </c>
       <c r="C43">
-        <v>0.0002169658546335</v>
+        <v>0.0001870376290753</v>
       </c>
       <c r="D43">
-        <v>0.0002116873656632</v>
+        <v>0.0001835827715694</v>
       </c>
       <c r="E43">
-        <v>0.0002132463705493</v>
+        <v>0.0001859731855802</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>0.0002192257380192024</v>
+        <v>0.0002094702273085431</v>
       </c>
       <c r="H43">
-        <v>0.00021922636951781</v>
+        <v>0.000215066892269495</v>
       </c>
       <c r="I43">
-        <v>0.0002165107071049967</v>
+        <v>0.0002165375243445167</v>
       </c>
       <c r="L43">
-        <v>30.49619006635119</v>
+        <v>16.48314086744801</v>
       </c>
       <c r="M43">
-        <v>38.27928882104952</v>
+        <v>21.36956101057523</v>
+      </c>
+      <c r="N43" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2253,34 +2250,37 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>0.0002132460940629</v>
+        <v>0.0001863955840235</v>
       </c>
       <c r="C44">
-        <v>0.0002148480270989</v>
+        <v>0.0001909208513097</v>
       </c>
       <c r="D44">
-        <v>0.000213138264371</v>
+        <v>0.0001855309819802</v>
       </c>
       <c r="E44">
-        <v>0.0002141737058991</v>
+        <v>0.0001907275000121</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.0002187664623719203</v>
+        <v>0.0002077663430088665</v>
       </c>
       <c r="H44">
-        <v>0.00021931685841987</v>
+        <v>0.00021358058220354</v>
       </c>
       <c r="I44">
-        <v>0.0002166362013667334</v>
+        <v>0.0002156301479165367</v>
       </c>
       <c r="L44">
-        <v>34.20062567135764</v>
+        <v>27.33877382528157</v>
       </c>
       <c r="M44">
-        <v>40.68567718592245</v>
+        <v>28.95465141460906</v>
+      </c>
+      <c r="N44" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2288,34 +2288,37 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.0002142246376024</v>
+        <v>0.0001903992524603</v>
       </c>
       <c r="C45">
-        <v>0.0002161222946597</v>
+        <v>0.0001951943268068</v>
       </c>
       <c r="D45">
-        <v>0.0002135537215508</v>
+        <v>0.0001860972406575</v>
       </c>
       <c r="E45">
-        <v>0.000215825610212</v>
+        <v>0.0001910170249175</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0.0002184991121755639</v>
+        <v>0.0002062436777278331</v>
       </c>
       <c r="H45">
-        <v>0.00021944594482188</v>
+        <v>0.000212121967342645</v>
       </c>
       <c r="I45">
-        <v>0.00021683551070353</v>
+        <v>0.00021463859739011</v>
       </c>
       <c r="L45">
-        <v>40.55046180301589</v>
+        <v>27.98010745937338</v>
       </c>
       <c r="M45">
-        <v>44.81331745328198</v>
+        <v>29.40128315103442</v>
+      </c>
+      <c r="N45" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2323,34 +2326,37 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>0.0002157517446903</v>
+        <v>0.000191057450138</v>
       </c>
       <c r="C46">
-        <v>0.0002164417819585</v>
+        <v>0.0001914958556881</v>
       </c>
       <c r="D46">
-        <v>0.0002145894395653</v>
+        <v>0.0001898750633699</v>
       </c>
       <c r="E46">
-        <v>0.0002145894395653</v>
+        <v>0.0001906007528305</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>0.0002181436873928127</v>
+        <v>0.0002048215936462574</v>
       </c>
       <c r="H46">
-        <v>0.0002196089670178</v>
+        <v>0.000210586961475165</v>
       </c>
       <c r="I46">
-        <v>0.00021698996036619</v>
+        <v>0.0002136604913781633</v>
       </c>
       <c r="L46">
-        <v>37.50355446532303</v>
+        <v>27.58626898069222</v>
       </c>
       <c r="M46">
-        <v>42.43357421442296</v>
+        <v>29.11785088230267</v>
+      </c>
+      <c r="N46" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2358,34 +2364,37 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>0.0002142152225133</v>
+        <v>0.0001904625678434</v>
       </c>
       <c r="C47">
-        <v>0.0002163090684916</v>
+        <v>0.0001906684919958</v>
       </c>
       <c r="D47">
-        <v>0.0002140584256267</v>
+        <v>0.000187367957551</v>
       </c>
       <c r="E47">
-        <v>0.000216085842112</v>
+        <v>0.0001889926934381</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.0002179566105491024</v>
+        <v>0.0002033826027182431</v>
       </c>
       <c r="H47">
-        <v>0.000219830980495265</v>
+        <v>0.00020907675352642</v>
       </c>
       <c r="I47">
-        <v>0.00021720518222229</v>
+        <v>0.00021268598648017</v>
       </c>
       <c r="L47">
-        <v>43.30493355206218</v>
+        <v>25.99606202529447</v>
       </c>
       <c r="M47">
-        <v>46.16072453173911</v>
+        <v>27.99512210956372</v>
+      </c>
+      <c r="N47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2393,1181 +2402,1190 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.0002160775329684</v>
+        <v>0.0001889248233055</v>
       </c>
       <c r="C48">
-        <v>0.0002212622348451</v>
+        <v>0.0001932692684931</v>
       </c>
       <c r="D48">
-        <v>0.0002160022268071</v>
+        <v>0.0001889248233055</v>
       </c>
       <c r="E48">
-        <v>0.0002202648029197</v>
+        <v>0.0001929286809172</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.0002181664462191567</v>
+        <v>0.0002024322461908755</v>
       </c>
       <c r="H48">
-        <v>0.000220221966446795</v>
+        <v>0.00020783638028657</v>
       </c>
       <c r="I48">
-        <v>0.00021747827267968</v>
+        <v>0.00021183636369335</v>
       </c>
       <c r="L48">
-        <v>56.10616696973143</v>
+        <v>36.13369610043335</v>
       </c>
       <c r="M48">
-        <v>54.93568146506858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34.6382902638304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>0.0002204499178333</v>
+        <v>0.0001930064463522</v>
       </c>
       <c r="C49">
-        <v>0.0002219828165834</v>
+        <v>0.0001990893797483</v>
       </c>
       <c r="D49">
-        <v>0.0002193855325458</v>
+        <v>0.0001918925845529</v>
       </c>
       <c r="E49">
-        <v>0.0002202448813477</v>
+        <v>0.0001918925845529</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>0.0002183553948672061</v>
+        <v>0.0002014740951328777</v>
       </c>
       <c r="H49">
-        <v>0.000220558101136655</v>
+        <v>0.000206439303292385</v>
       </c>
       <c r="I49">
-        <v>0.0002177515144769867</v>
+        <v>0.00021091495436845</v>
       </c>
       <c r="L49">
-        <v>56.03830922822544</v>
+        <v>34.72498227386735</v>
       </c>
       <c r="M49">
-        <v>54.88975351539026</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>33.75543767326205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>0.0002201390016125</v>
+        <v>0.0001918344787554</v>
       </c>
       <c r="C50">
-        <v>0.0002238188462797</v>
+        <v>0.0001919221540447</v>
       </c>
       <c r="D50">
-        <v>0.0002198644069721</v>
+        <v>0.00018825045845</v>
       </c>
       <c r="E50">
-        <v>0.0002209916274296</v>
+        <v>0.0001911162689793</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.0002185950523728783</v>
+        <v>0.0002005324745734616</v>
       </c>
       <c r="H50">
-        <v>0.000220905531750715</v>
+        <v>0.00020489542803257</v>
       </c>
       <c r="I50">
-        <v>0.0002180801389234</v>
+        <v>0.0002099636214552033</v>
       </c>
       <c r="L50">
-        <v>58.17165547139567</v>
+        <v>33.62013927227994</v>
       </c>
       <c r="M50">
-        <v>56.36246207709448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>33.07520555712379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.0002208583900937</v>
+        <v>0.0001914295717142</v>
       </c>
       <c r="C51">
-        <v>0.0002214097039541</v>
+        <v>0.0001925191754708</v>
       </c>
       <c r="D51">
-        <v>0.0002160232543246</v>
+        <v>0.0001891898573376</v>
       </c>
       <c r="E51">
-        <v>0.0002177160786231</v>
+        <v>0.0001899746857816</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.000218515145668353</v>
+        <v>0.0001995726755923832</v>
       </c>
       <c r="H51">
-        <v>0.00022091416321923</v>
+        <v>0.0002031321462709</v>
       </c>
       <c r="I51">
-        <v>0.0002183128424803267</v>
+        <v>0.0002089704425694633</v>
       </c>
       <c r="L51">
-        <v>46.93269594824185</v>
+        <v>31.93900754229447</v>
       </c>
       <c r="M51">
-        <v>48.8316949805508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32.05232053537737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>0.0002175472764065</v>
+        <v>0.0001900082424981</v>
       </c>
       <c r="C52">
-        <v>0.0002196048153564</v>
+        <v>0.0001905743556562</v>
       </c>
       <c r="D52">
-        <v>0.0002168015489587</v>
+        <v>0.000188382473425</v>
       </c>
       <c r="E52">
-        <v>0.0002190567320212</v>
+        <v>0.0001891658466774</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.0002185643807913391</v>
+        <v>0.0001986266002364757</v>
       </c>
       <c r="H52">
-        <v>0.00022083856383683</v>
+        <v>0.00020085004871357</v>
       </c>
       <c r="I52">
-        <v>0.0002185380120256767</v>
+        <v>0.0002079429357156967</v>
       </c>
       <c r="L52">
-        <v>51.26794791911211</v>
+        <v>30.71479465468822</v>
       </c>
       <c r="M52">
-        <v>51.67756581773943</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>31.31340662938167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>0.0002190980740124</v>
+        <v>0.0001886268437374</v>
       </c>
       <c r="C53">
-        <v>0.0002211116661783</v>
+        <v>0.0001900689094327</v>
       </c>
       <c r="D53">
-        <v>0.0002182004827773</v>
+        <v>0.0001881603820947</v>
       </c>
       <c r="E53">
-        <v>0.0002191183011746</v>
+        <v>0.0001884086523205</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.0002186147371898174</v>
+        <v>0.0001976976958804779</v>
       </c>
       <c r="H53">
-        <v>0.00022043555727573</v>
+        <v>0.000198533888760675</v>
       </c>
       <c r="I53">
-        <v>0.00021875314705535</v>
+        <v>0.0002068720845272333</v>
       </c>
       <c r="L53">
-        <v>51.47276776373231</v>
+        <v>29.52302021792413</v>
       </c>
       <c r="M53">
-        <v>51.81012240958724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>30.60216618536321</v>
+      </c>
+      <c r="N53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>0.0002189327933592</v>
+        <v>0.000188497651834</v>
       </c>
       <c r="C54">
-        <v>0.0002205450728069</v>
+        <v>0.0001892981672426</v>
       </c>
       <c r="D54">
-        <v>0.0002174135006498</v>
+        <v>0.0001870851847343</v>
       </c>
       <c r="E54">
-        <v>0.0002174135006498</v>
+        <v>0.000188619524124</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.0002185055338679976</v>
+        <v>0.0001968724075389799</v>
       </c>
       <c r="H54">
-        <v>0.00021993146365271</v>
+        <v>0.000196227295236845</v>
       </c>
       <c r="I54">
-        <v>0.0002189214661484133</v>
+        <v>0.0002058109452869934</v>
       </c>
       <c r="L54">
-        <v>45.51389336737483</v>
+        <v>30.36948659713729</v>
       </c>
       <c r="M54">
-        <v>47.89256228247307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>31.07171358065936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>0.0002175625559175</v>
+        <v>0.0001886157842818</v>
       </c>
       <c r="C55">
-        <v>0.0002189517399528</v>
+        <v>0.0001889627164928</v>
       </c>
       <c r="D55">
-        <v>0.0002163421740988</v>
+        <v>0.000182084593689</v>
       </c>
       <c r="E55">
-        <v>0.0002179487928515</v>
+        <v>0.0001826345251174</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.000218454921048316</v>
+        <v>0.0001955780545915635</v>
       </c>
       <c r="H55">
-        <v>0.000219495943747415</v>
+        <v>0.000193638961354685</v>
       </c>
       <c r="I55">
-        <v>0.0002190782965044033</v>
+        <v>0.0002045591187197267</v>
       </c>
       <c r="L55">
-        <v>47.65449556814863</v>
+        <v>21.95126892082247</v>
       </c>
       <c r="M55">
-        <v>49.1916491152064</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>25.74705937192233</v>
+      </c>
+      <c r="N55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>0.0002181913296226</v>
+        <v>0.0001818645978346</v>
       </c>
       <c r="C56">
-        <v>0.0002213765110354</v>
+        <v>0.0001828706008382</v>
       </c>
       <c r="D56">
-        <v>0.0002181913296226</v>
+        <v>0.0001775496930349</v>
       </c>
       <c r="E56">
-        <v>0.0002207635407103</v>
+        <v>0.0001783619227353</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.0002186647955630418</v>
+        <v>0.0001940129516955395</v>
       </c>
       <c r="H56">
-        <v>0.000219209279748565</v>
+        <v>0.0001909090984554</v>
       </c>
       <c r="I56">
-        <v>0.00021939278133985</v>
+        <v>0.0002031278204715667</v>
       </c>
       <c r="L56">
-        <v>57.52583609121147</v>
+        <v>17.95429002128533</v>
       </c>
       <c r="M56">
-        <v>55.4773375996817</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>22.74984549395937</v>
+      </c>
+      <c r="N56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>0.0002207760699093</v>
+        <v>0.0001781981409294</v>
       </c>
       <c r="C57">
-        <v>0.0002209644153481</v>
+        <v>0.000180085102329</v>
       </c>
       <c r="D57">
-        <v>0.0002193930413341</v>
+        <v>0.0001722427550703</v>
       </c>
       <c r="E57">
-        <v>0.0002199439331889</v>
+        <v>0.000175760636921</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>0.0002187810808017562</v>
+        <v>0.0001923536503523996</v>
       </c>
       <c r="H57">
-        <v>0.000218954261799765</v>
+        <v>0.000187988963443735</v>
       </c>
       <c r="I57">
-        <v>0.0002196693933607233</v>
+        <v>0.0002016799466218333</v>
       </c>
       <c r="L57">
-        <v>54.17891111863999</v>
+        <v>15.96340624303932</v>
       </c>
       <c r="M57">
-        <v>53.40550389901037</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>21.13658258515139</v>
+      </c>
+      <c r="N57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>0.0002198973525082</v>
+        <v>0.0001754601689754</v>
       </c>
       <c r="C58">
-        <v>0.0002199577575083</v>
+        <v>0.0001762149913702</v>
       </c>
       <c r="D58">
-        <v>0.0002174159453716</v>
+        <v>0.0001741323794703</v>
       </c>
       <c r="E58">
-        <v>0.0002182278403779</v>
+        <v>0.0001748734648572</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.0002187307862177692</v>
+        <v>0.0001907645425801087</v>
       </c>
       <c r="H58">
-        <v>0.00021862330831932</v>
+        <v>0.00018712465025596</v>
       </c>
       <c r="I58">
-        <v>0.00021986215191035</v>
+        <v>0.0002002511905932667</v>
       </c>
       <c r="L58">
-        <v>47.64877628989812</v>
+        <v>15.31195686114916</v>
       </c>
       <c r="M58">
-        <v>49.25757036344163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>20.60004598152434</v>
+      </c>
+      <c r="N58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>0.0002185164921684</v>
+        <v>0.0001746203197399</v>
       </c>
       <c r="C59">
-        <v>0.0002189016522606</v>
+        <v>0.0001772164978319</v>
       </c>
       <c r="D59">
-        <v>0.0002180773881264</v>
+        <v>0.0001745147455949</v>
       </c>
       <c r="E59">
-        <v>0.0002184173645218</v>
+        <v>0.0001766643254086</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.0002187022933363175</v>
+        <v>0.0001894827046554261</v>
       </c>
       <c r="H59">
-        <v>0.00021823518472952</v>
+        <v>0.000186508792830815</v>
       </c>
       <c r="I59">
-        <v>0.00022002532447606</v>
+        <v>0.0001988121972923333</v>
       </c>
       <c r="L59">
-        <v>48.42117162602948</v>
+        <v>22.49473951730189</v>
       </c>
       <c r="M59">
-        <v>49.7220130277617</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>24.75241323019468</v>
+      </c>
+      <c r="N59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.0002184738987125</v>
+        <v>0.000176697736606</v>
       </c>
       <c r="C60">
-        <v>0.0002196735003963</v>
+        <v>0.0001771566749084</v>
       </c>
       <c r="D60">
-        <v>0.000217890163185</v>
+        <v>0.0001744267938192</v>
       </c>
       <c r="E60">
-        <v>0.0002195348642999</v>
+        <v>0.0001744267938192</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.0002187779816057341</v>
+        <v>0.0001881139854884964</v>
       </c>
       <c r="H60">
-        <v>0.000217942780000115</v>
+        <v>0.00018577444643592</v>
       </c>
       <c r="I60">
-        <v>0.0002202083861144433</v>
+        <v>0.0001972266312804533</v>
       </c>
       <c r="L60">
-        <v>53.01917097582114</v>
+        <v>20.09867758795005</v>
       </c>
       <c r="M60">
-        <v>52.48367956324947</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>23.12516980622034</v>
+      </c>
+      <c r="N60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.000219454683247</v>
+        <v>0.000174691886059</v>
       </c>
       <c r="C61">
-        <v>0.0002205602941103</v>
+        <v>0.0001769570226315</v>
       </c>
       <c r="D61">
-        <v>0.0002193526743212</v>
+        <v>0.000174331391463</v>
       </c>
       <c r="E61">
-        <v>0.0002196562563767</v>
+        <v>0.0001766612258506</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.000218857824766731</v>
+        <v>0.0001870728255214149</v>
       </c>
       <c r="H61">
-        <v>0.00021786537254225</v>
+        <v>0.000185221523861345</v>
       </c>
       <c r="I61">
-        <v>0.0002202788130185733</v>
+        <v>0.0001956073281083067</v>
       </c>
       <c r="L61">
-        <v>53.52547088470007</v>
+        <v>28.63819612074251</v>
       </c>
       <c r="M61">
-        <v>52.78705611906041</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>28.20131597427523</v>
+      </c>
+      <c r="N61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>0.0002196565328631</v>
+        <v>0.0001766680215951</v>
       </c>
       <c r="C62">
-        <v>0.0002198423608206</v>
+        <v>0.0001767461944837</v>
       </c>
       <c r="D62">
-        <v>0.0002188849030062</v>
+        <v>0.0001753965188981</v>
       </c>
       <c r="E62">
-        <v>0.0002197700523538</v>
+        <v>0.0001758889411576</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.0002189407545473736</v>
+        <v>0.0001860561087610681</v>
       </c>
       <c r="H62">
-        <v>0.00021814947685921</v>
+        <v>0.00018473446179991</v>
       </c>
       <c r="I62">
-        <v>0.0002202521907747267</v>
+        <v>0.0001936433662194267</v>
       </c>
       <c r="L62">
-        <v>54.047726676201</v>
+        <v>27.49556798286791</v>
       </c>
       <c r="M62">
-        <v>53.08942093856297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>27.52481364107225</v>
+      </c>
+      <c r="N62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.0002199762966483</v>
+        <v>0.0001757211721269</v>
       </c>
       <c r="C63">
-        <v>0.0002212647523265</v>
+        <v>0.0001763000327628</v>
       </c>
       <c r="D63">
-        <v>0.0002194614207837</v>
+        <v>0.0001753440592437</v>
       </c>
       <c r="E63">
-        <v>0.0002199910522904</v>
+        <v>0.0001756789133651</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.000219036236160376</v>
+        <v>0.0001851127273614346</v>
       </c>
       <c r="H63">
-        <v>0.000218486710946265</v>
+        <v>0.000184219748189155</v>
       </c>
       <c r="I63">
-        <v>0.0002200126114378533</v>
+        <v>0.0001916749349523167</v>
       </c>
       <c r="L63">
-        <v>55.14890852767415</v>
+        <v>27.16397567173779</v>
       </c>
       <c r="M63">
-        <v>53.70945055851646</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>27.33278419868811</v>
+      </c>
+      <c r="N63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.0002199791488237</v>
+        <v>0.0001756027631927</v>
       </c>
       <c r="C64">
-        <v>0.0002205539785791</v>
+        <v>0.0001756383280735</v>
       </c>
       <c r="D64">
-        <v>0.0002195435808971</v>
+        <v>0.0001748299109749</v>
       </c>
       <c r="E64">
-        <v>0.0002205341879744</v>
+        <v>0.0001749409420881</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.0002191724135980145</v>
+        <v>0.0001841880196093133</v>
       </c>
       <c r="H64">
-        <v>0.00021880473505003</v>
+        <v>0.000183430420292955</v>
       </c>
       <c r="I64">
-        <v>0.0002197805719333267</v>
+        <v>0.0001896812532019</v>
       </c>
       <c r="L64">
-        <v>57.93588023140497</v>
+        <v>25.92795635874072</v>
       </c>
       <c r="M64">
-        <v>55.27404623152242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>26.62977926245857</v>
+      </c>
+      <c r="N64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.0002204479242209</v>
+        <v>0.0001749739894876</v>
       </c>
       <c r="C65">
-        <v>0.0002209092781413</v>
+        <v>0.0001765023916959</v>
       </c>
       <c r="D65">
-        <v>0.0002195965789724</v>
+        <v>0.0001745193731039</v>
       </c>
       <c r="E65">
-        <v>0.0002204537013312</v>
+        <v>0.0001761445018928</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.0002192888943010314</v>
+        <v>0.0001834567907259939</v>
       </c>
       <c r="H65">
-        <v>0.00021903613960599</v>
+        <v>0.00018268679414172</v>
       </c>
       <c r="I65">
-        <v>0.00021957372227912</v>
+        <v>0.0001877393631729733</v>
       </c>
       <c r="L65">
-        <v>57.34186259511438</v>
+        <v>31.63542799652238</v>
       </c>
       <c r="M65">
-        <v>54.97749828277374</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>29.80094309335992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>0.0002203818439738</v>
+        <v>0.0001763167092576</v>
       </c>
       <c r="C66">
-        <v>0.0002224755444331</v>
+        <v>0.0001765334018273</v>
       </c>
       <c r="D66">
-        <v>0.0002200466551585</v>
+        <v>0.0001754421100486</v>
       </c>
       <c r="E66">
-        <v>0.0002201893221354</v>
+        <v>0.0001754678669385</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.0002193707513768831</v>
+        <v>0.0001827305249271308</v>
       </c>
       <c r="H66">
-        <v>0.000219316133734495</v>
+        <v>0.00018193014984712</v>
       </c>
       <c r="I66">
-        <v>0.00021936347232739</v>
+        <v>0.00018582298604689</v>
       </c>
       <c r="L66">
-        <v>55.24857548546588</v>
+        <v>30.16536064174877</v>
       </c>
       <c r="M66">
-        <v>53.95354117074494</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>29.04099866019702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>0.0002202909672632</v>
+        <v>0.000175600827788</v>
       </c>
       <c r="C67">
-        <v>0.0002213008701801</v>
+        <v>0.0001762648898875</v>
       </c>
       <c r="D67">
-        <v>0.00021934635879</v>
+        <v>0.0001752572134137</v>
       </c>
       <c r="E67">
-        <v>0.0002213008701801</v>
+        <v>0.000176037356141</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.0002195462167226301</v>
+        <v>0.0001821220550374825</v>
       </c>
       <c r="H67">
-        <v>0.0002195768851379</v>
+        <v>0.000181282382982265</v>
       </c>
       <c r="I67">
-        <v>0.0002192386915945633</v>
+        <v>0.0001838854533464467</v>
       </c>
       <c r="L67">
-        <v>61.83792401980954</v>
+        <v>33.10854683361055</v>
       </c>
       <c r="M67">
-        <v>57.53464716293936</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>30.64406396808582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>0.0002211910323239</v>
+        <v>0.0001759252481861</v>
       </c>
       <c r="C68">
-        <v>0.0002213880070485</v>
+        <v>0.0001762839528964</v>
       </c>
       <c r="D68">
-        <v>0.0002184162585763</v>
+        <v>0.0001749242801452</v>
       </c>
       <c r="E68">
-        <v>0.000219196852413</v>
+        <v>0.0001749242801452</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.0002195144563308455</v>
+        <v>0.0001814677118654569</v>
       </c>
       <c r="H68">
-        <v>0.000219523487612565</v>
+        <v>0.000180382162943665</v>
       </c>
       <c r="I68">
-        <v>0.0002190503563421034</v>
+        <v>0.00018331093839753</v>
       </c>
       <c r="L68">
-        <v>47.07688262250007</v>
+        <v>30.30059387209869</v>
       </c>
       <c r="M68">
-        <v>49.66152739069857</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>29.25302740641583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>0.000219735855353</v>
+        <v>0.000174827495357</v>
       </c>
       <c r="C69">
-        <v>0.0002197767025791</v>
+        <v>0.0001751380477799</v>
       </c>
       <c r="D69">
-        <v>0.0002163482422474</v>
+        <v>0.0001712304510874</v>
       </c>
       <c r="E69">
-        <v>0.0002177361457142</v>
+        <v>0.0001715909602353</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.0002193527917293323</v>
+        <v>0.0001805698253536244</v>
       </c>
       <c r="H69">
-        <v>0.00021939805083089</v>
+        <v>0.000179367081727785</v>
       </c>
       <c r="I69">
-        <v>0.00021876889998865</v>
+        <v>0.0001827312546083234</v>
       </c>
       <c r="L69">
-        <v>39.67926532811432</v>
+        <v>23.5668577811257</v>
       </c>
       <c r="M69">
-        <v>45.05225629728248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>25.51738562341418</v>
+      </c>
+      <c r="N69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.000217798151425</v>
+        <v>0.0001713489473331</v>
       </c>
       <c r="C70">
-        <v>0.0002207618526881</v>
+        <v>0.0001747112983139</v>
       </c>
       <c r="D70">
-        <v>0.0002174331311834</v>
+        <v>0.0001711369259282</v>
       </c>
       <c r="E70">
-        <v>0.0002198341244366</v>
+        <v>0.0001743510074447</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.0002193965492481748</v>
+        <v>0.0001800044782709949</v>
       </c>
       <c r="H70">
-        <v>0.00021934017568124</v>
+        <v>0.000178528818651055</v>
       </c>
       <c r="I70">
-        <v>0.00021858393884027</v>
+        <v>0.0001822391641325767</v>
       </c>
       <c r="L70">
-        <v>51.89377465345596</v>
+        <v>36.67577625094125</v>
       </c>
       <c r="M70">
-        <v>51.95029527626626</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>33.13182721769424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.0002199152804678</v>
+        <v>0.0001744622277328</v>
       </c>
       <c r="C71">
-        <v>0.0002219937741756</v>
+        <v>0.0001753777178237</v>
       </c>
       <c r="D71">
-        <v>0.000218799628783</v>
+        <v>0.0001743626053212</v>
       </c>
       <c r="E71">
-        <v>0.0002219937741756</v>
+        <v>0.0001752004463924</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.0002196326606052134</v>
+        <v>0.0001795677481002136</v>
       </c>
       <c r="H71">
-        <v>0.000219554060458865</v>
+        <v>0.000177790106681595</v>
       </c>
       <c r="I71">
-        <v>0.0002186102511283233</v>
+        <v>0.0001818218564342533</v>
       </c>
       <c r="L71">
-        <v>61.03183672343366</v>
+        <v>40.22530500734625</v>
       </c>
       <c r="M71">
-        <v>57.82039185103627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>35.32327687575361</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>0.000223072929657</v>
+        <v>0.0001750586379785</v>
       </c>
       <c r="C72">
-        <v>0.000225742754992</v>
+        <v>0.0001751952368067</v>
       </c>
       <c r="D72">
-        <v>0.0002228025259682</v>
+        <v>0.0001743729808367</v>
       </c>
       <c r="E72">
-        <v>0.000225240321015</v>
+        <v>0.0001748984504956</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.0002201424479151941</v>
+        <v>0.0001791432664997942</v>
       </c>
       <c r="H72">
-        <v>0.000219863239908555</v>
+        <v>0.000177076736872505</v>
       </c>
       <c r="I72">
-        <v>0.0002189819962950033</v>
+        <v>0.0001814641320378967</v>
       </c>
       <c r="L72">
-        <v>70.50660279786173</v>
+        <v>39.34325639308035</v>
       </c>
       <c r="M72">
-        <v>64.7851146670755</v>
-      </c>
-      <c r="O72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>34.88554207631817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>0.0002249555836897</v>
+        <v>0.0001749820366967</v>
       </c>
       <c r="C73">
-        <v>0.000235263389186</v>
+        <v>0.000176025685505</v>
       </c>
       <c r="D73">
-        <v>0.0002243375784019</v>
+        <v>0.0001731676020426</v>
       </c>
       <c r="E73">
-        <v>0.000234807797824</v>
+        <v>0.0001732146774884</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>0.0002214756615432673</v>
+        <v>0.0001786043038623947</v>
       </c>
       <c r="H73">
-        <v>0.000220647714741025</v>
+        <v>0.0001763170381309</v>
       </c>
       <c r="I73">
-        <v>0.0002197007105374933</v>
+        <v>0.0001810388484348367</v>
       </c>
       <c r="L73">
-        <v>83.67008435027046</v>
+        <v>34.58626982932225</v>
       </c>
       <c r="M73">
-        <v>76.89367668671838</v>
-      </c>
-      <c r="O73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>32.46956016564621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.0002353235759073</v>
+        <v>0.0001732070377329</v>
       </c>
       <c r="C74">
-        <v>0.0002361335500609</v>
+        <v>0.000177368579898</v>
       </c>
       <c r="D74">
-        <v>0.0002341551735298</v>
+        <v>0.0001732070377329</v>
       </c>
       <c r="E74">
-        <v>0.0002347318513784</v>
+        <v>0.0001758994767442</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.0002226807697100976</v>
+        <v>0.0001783584104880133</v>
       </c>
       <c r="H74">
-        <v>0.000221513632277455</v>
+        <v>0.00017568103576191</v>
       </c>
       <c r="I74">
-        <v>0.00022038598205347</v>
+        <v>0.0001805445809925733</v>
       </c>
       <c r="L74">
-        <v>83.33792139872853</v>
+        <v>46.24522137821906</v>
       </c>
       <c r="M74">
-        <v>76.66831663272937</v>
-      </c>
-      <c r="O74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>39.64685914807912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>0.0002347318513784</v>
+        <v>0.0001761535095283</v>
       </c>
       <c r="C75">
-        <v>0.0002355822944082</v>
+        <v>0.0001765535562299</v>
       </c>
       <c r="D75">
-        <v>0.0002321594074601</v>
+        <v>0.0001741511659929</v>
       </c>
       <c r="E75">
-        <v>0.0002347513946006</v>
+        <v>0.0001745868794387</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.0002237780992455978</v>
+        <v>0.0001780155440289848</v>
       </c>
       <c r="H75">
-        <v>0.00022235376236491</v>
+        <v>0.000175278653477975</v>
       </c>
       <c r="I75">
-        <v>0.00022101684153309</v>
+        <v>0.0001799969094766133</v>
       </c>
       <c r="L75">
-        <v>83.35704865016795</v>
+        <v>42.11650440418816</v>
       </c>
       <c r="M75">
-        <v>76.68725110462853</v>
-      </c>
-      <c r="O75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>37.5458507792391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>0.0002348445414099</v>
+        <v>0.0001743766915751</v>
       </c>
       <c r="C76">
-        <v>0.0002348445414099</v>
+        <v>0.0001755674602463</v>
       </c>
       <c r="D76">
-        <v>0.0002331302239326</v>
+        <v>0.0001740884181344</v>
       </c>
       <c r="E76">
-        <v>0.0002344012027606</v>
+        <v>0.0001754894765326</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0.0002247438359287798</v>
+        <v>0.0001777859015293135</v>
       </c>
       <c r="H76">
-        <v>0.000223035645467425</v>
+        <v>0.00017513503116784</v>
       </c>
       <c r="I76">
-        <v>0.0002216772336396</v>
+        <v>0.0001794932002666833</v>
       </c>
       <c r="L76">
-        <v>81.47169632149019</v>
+        <v>45.85600407431657</v>
       </c>
       <c r="M76">
-        <v>75.50481868820331</v>
-      </c>
-      <c r="O76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>39.90421100432846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>0.0002342424413654</v>
+        <v>0.0001757702266331</v>
       </c>
       <c r="C77">
-        <v>0.0002344082313356</v>
+        <v>0.0001759252481861</v>
       </c>
       <c r="D77">
-        <v>0.0002322309883311</v>
+        <v>0.0001745670597301</v>
       </c>
       <c r="E77">
-        <v>0.000232959180721</v>
+        <v>0.0001751495437929</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.0002254906854553452</v>
+        <v>0.000177546232644185</v>
       </c>
       <c r="H77">
-        <v>0.00022368640784403</v>
+        <v>0.000175104476511435</v>
       </c>
       <c r="I77">
-        <v>0.0002222396782599</v>
+        <v>0.0001790317619451767</v>
       </c>
       <c r="L77">
-        <v>73.74488200779552</v>
+        <v>44.63426429199617</v>
       </c>
       <c r="M77">
-        <v>70.67251455206623</v>
-      </c>
-      <c r="O77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>39.30227505313663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>0.0002330775168957</v>
+        <v>0.0001751437957864</v>
       </c>
       <c r="C78">
-        <v>0.0002350561408093</v>
+        <v>0.0001766508212313</v>
       </c>
       <c r="D78">
-        <v>0.0002317219768883</v>
+        <v>0.0001750431838445</v>
       </c>
       <c r="E78">
-        <v>0.0002341633371543</v>
+        <v>0.0001756222627591</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.0002262791083370684</v>
+        <v>0.0001773713262909954</v>
       </c>
       <c r="H78">
-        <v>0.00022448318268285</v>
+        <v>0.00017514191640653</v>
       </c>
       <c r="I78">
-        <v>0.0002227029627343867</v>
+        <v>0.0001784548813399067</v>
       </c>
       <c r="L78">
-        <v>75.89273790697808</v>
+        <v>46.84965902304613</v>
       </c>
       <c r="M78">
-        <v>72.26856852911408</v>
-      </c>
-      <c r="O78" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>40.64317668920548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>0.000234473234741</v>
+        <v>0.0001756435376591</v>
       </c>
       <c r="C79">
-        <v>0.0002426764112897</v>
+        <v>0.0001770463131833</v>
       </c>
       <c r="D79">
-        <v>0.0001911990111693</v>
+        <v>0.0001729430514387</v>
       </c>
       <c r="E79">
-        <v>0.0001921597286127</v>
+        <v>0.0001768126094248</v>
       </c>
       <c r="F79">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.000223177346543944</v>
+        <v>0.000177320533848614</v>
       </c>
       <c r="H79">
-        <v>0.000223170300887395</v>
+        <v>0.00017514933060734</v>
       </c>
       <c r="I79">
-        <v>0.0002217667909765533</v>
+        <v>0.0001779522155023033</v>
       </c>
       <c r="L79">
-        <v>18.02543835009585</v>
+        <v>52.26101584019077</v>
       </c>
       <c r="M79">
-        <v>23.73837187312768</v>
-      </c>
-      <c r="N79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>43.9980984538598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>0.0001921091461554</v>
+        <v>0.0001770879025571</v>
       </c>
       <c r="C80">
-        <v>0.0001925777614815</v>
+        <v>0.00017772562569</v>
       </c>
       <c r="D80">
-        <v>0.000186205637874</v>
+        <v>0.0001757340651238</v>
       </c>
       <c r="E80">
-        <v>0.0001889814739115</v>
+        <v>0.0001768170186551</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.0002200686308500854</v>
+        <v>0.0001772747597401128</v>
       </c>
       <c r="H80">
-        <v>0.000221642631367975</v>
+        <v>0.000175268841849135</v>
       </c>
       <c r="I80">
-        <v>0.0002206997858592833</v>
+        <v>0.00017747557382483</v>
       </c>
       <c r="L80">
-        <v>16.92678165754126</v>
+        <v>52.28126145254087</v>
       </c>
       <c r="M80">
-        <v>22.50679094534586</v>
-      </c>
-      <c r="N80" t="s">
-        <v>195</v>
+        <v>44.01072226878546</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3575,37 +3593,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>0.0001890797866508</v>
+        <v>0.0001769392983987</v>
       </c>
       <c r="C81">
-        <v>0.0001895339373731</v>
+        <v>0.0001786709472071</v>
       </c>
       <c r="D81">
-        <v>0.0001872611319413</v>
+        <v>0.0001766496425261</v>
       </c>
       <c r="E81">
-        <v>0.0001891137217171</v>
+        <v>0.0001768171205185</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.0002172545482016322</v>
+        <v>0.0001772331561745116</v>
       </c>
       <c r="H81">
-        <v>0.000220115504634995</v>
+        <v>0.00017527663658253</v>
       </c>
       <c r="I81">
-        <v>0.0002197463739624167</v>
+        <v>0.00017703698831606</v>
       </c>
       <c r="L81">
-        <v>17.16312977716631</v>
+        <v>52.28178740903104</v>
       </c>
       <c r="M81">
-        <v>22.68653379803914</v>
-      </c>
-      <c r="N81" t="s">
-        <v>195</v>
+        <v>44.01103626928773</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3613,37 +3628,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>0.0001890579151222</v>
+        <v>0.0001767927606124</v>
       </c>
       <c r="C82">
-        <v>0.0001893297157948</v>
+        <v>0.000176953166374</v>
       </c>
       <c r="D82">
-        <v>0.0001877196773421</v>
+        <v>0.0001758021389832</v>
       </c>
       <c r="E82">
-        <v>0.0001877196773421</v>
+        <v>0.0001758021389832</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0.0002145695599416747</v>
+        <v>0.0001771030637025742</v>
       </c>
       <c r="H82">
-        <v>0.00021851298588441</v>
+        <v>0.00017527229647381</v>
       </c>
       <c r="I82">
-        <v>0.0002187018054731133</v>
+        <v>0.00017659153139292</v>
       </c>
       <c r="L82">
-        <v>16.60296298218719</v>
+        <v>46.53255035410638</v>
       </c>
       <c r="M82">
-        <v>22.10450877108211</v>
-      </c>
-      <c r="N82" t="s">
-        <v>195</v>
+        <v>41.51280731094315</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3651,37 +3663,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>0.0001877000031527</v>
+        <v>0.0001757312275003</v>
       </c>
       <c r="C83">
-        <v>0.0001880589406937</v>
+        <v>0.0001758617581799</v>
       </c>
       <c r="D83">
-        <v>0.0001856301823863</v>
+        <v>0.0001748759968904</v>
       </c>
       <c r="E83">
-        <v>0.0001856301823863</v>
+        <v>0.0001748759968904</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.0002119387074366406</v>
+        <v>0.0001769006030832856</v>
       </c>
       <c r="H83">
-        <v>0.000216794942389205</v>
+        <v>0.000175232150650075</v>
       </c>
       <c r="I83">
-        <v>0.0002175855348468367</v>
+        <v>0.0001761404428785833</v>
       </c>
       <c r="L83">
-        <v>15.73688518984599</v>
+        <v>41.81258499574867</v>
       </c>
       <c r="M83">
-        <v>21.22552400966515</v>
-      </c>
-      <c r="N83" t="s">
-        <v>195</v>
+        <v>39.31957983901435</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3689,37 +3698,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>0.0001867051032604</v>
+        <v>0.0001748447102727</v>
       </c>
       <c r="C84">
-        <v>0.0001870376290753</v>
+        <v>0.0001755849807523</v>
       </c>
       <c r="D84">
-        <v>0.0001835827715694</v>
+        <v>0.0001745689369272</v>
       </c>
       <c r="E84">
-        <v>0.0001859731855802</v>
+        <v>0.0001749444636516</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.0002095782054496915</v>
+        <v>0.0001767227722258596</v>
       </c>
       <c r="H84">
-        <v>0.000215066892269495</v>
+        <v>0.00017523232672825</v>
       </c>
       <c r="I84">
-        <v>0.0002165375243445167</v>
+        <v>0.0001756846075295033</v>
       </c>
       <c r="L84">
-        <v>16.54088223394445</v>
+        <v>42.29934777370301</v>
       </c>
       <c r="M84">
-        <v>21.77542589113415</v>
-      </c>
-      <c r="N84" t="s">
-        <v>195</v>
+        <v>39.57374387898843</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3727,37 +3733,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>0.0001863955840235</v>
+        <v>0.0001748845534166</v>
       </c>
       <c r="C85">
-        <v>0.0001909208513097</v>
+        <v>0.0001757827267283</v>
       </c>
       <c r="D85">
-        <v>0.0001855309819802</v>
+        <v>0.0001737983257044</v>
       </c>
       <c r="E85">
-        <v>0.0001907275000121</v>
+        <v>0.000174884989974</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.000207864504955365</v>
+        <v>0.0001765557011120542</v>
       </c>
       <c r="H85">
-        <v>0.00021358058220354</v>
+        <v>0.00017516935113231</v>
       </c>
       <c r="I85">
-        <v>0.0002156301479165367</v>
+        <v>0.00017542628969139</v>
       </c>
       <c r="L85">
-        <v>27.3500990671609</v>
+        <v>41.95635608835056</v>
       </c>
       <c r="M85">
-        <v>29.15733961386821</v>
-      </c>
-      <c r="N85" t="s">
-        <v>195</v>
+        <v>39.41928815884333</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -3765,37 +3768,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>0.0001903992524603</v>
+        <v>0.0001740875013638</v>
       </c>
       <c r="C86">
-        <v>0.0001951943268068</v>
+        <v>0.0001749800721881</v>
       </c>
       <c r="D86">
-        <v>0.0001860972406575</v>
+        <v>0.0001732417294988</v>
       </c>
       <c r="E86">
-        <v>0.0001910170249175</v>
+        <v>0.0001744891778798</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0.0002063329158610136</v>
+        <v>0.0001763678353636674</v>
       </c>
       <c r="H86">
-        <v>0.000212121967342645</v>
+        <v>0.000175120416679375</v>
       </c>
       <c r="I86">
-        <v>0.00021463859739011</v>
+        <v>0.0001752971981962066</v>
       </c>
       <c r="L86">
-        <v>27.98905294741417</v>
+        <v>39.55493987591908</v>
       </c>
       <c r="M86">
-        <v>29.59307601222429</v>
-      </c>
-      <c r="N86" t="s">
-        <v>195</v>
+        <v>38.34660196078399</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -3803,37 +3803,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.000191057450138</v>
+        <v>0.0001746173657011</v>
       </c>
       <c r="C87">
-        <v>0.0001914958556881</v>
+        <v>0.0001755608827807</v>
       </c>
       <c r="D87">
-        <v>0.0001898750633699</v>
+        <v>0.0001744264736771</v>
       </c>
       <c r="E87">
-        <v>0.0001906007528305</v>
+        <v>0.0001751059025991</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.000204902719221876</v>
+        <v>0.0001762531142032522</v>
       </c>
       <c r="H87">
-        <v>0.000210586961475165</v>
+        <v>0.00017507384400228</v>
       </c>
       <c r="I87">
-        <v>0.0002136604913781633</v>
+        <v>0.00017527537371881</v>
       </c>
       <c r="L87">
-        <v>27.59646957975667</v>
+        <v>45.06635254261555</v>
       </c>
       <c r="M87">
-        <v>29.31389966558949</v>
-      </c>
-      <c r="N87" t="s">
-        <v>195</v>
+        <v>41.03886049780935</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -3841,37 +3838,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>0.0001904625678434</v>
+        <v>0.000175232955371</v>
       </c>
       <c r="C88">
-        <v>0.0001906684919958</v>
+        <v>0.000175232955371</v>
       </c>
       <c r="D88">
-        <v>0.000187367957551</v>
+        <v>0.0001741966698318</v>
       </c>
       <c r="E88">
-        <v>0.0001889926934381</v>
+        <v>0.0001744447363307</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.0002034563532415327</v>
+        <v>0.0001760887162148384</v>
       </c>
       <c r="H88">
-        <v>0.00020907675352642</v>
+        <v>0.000175049866811555</v>
       </c>
       <c r="I88">
-        <v>0.00021268598648017</v>
+        <v>0.0001752610827679267</v>
       </c>
       <c r="L88">
-        <v>26.01093068091498</v>
+        <v>40.60141729408424</v>
       </c>
       <c r="M88">
-        <v>28.20688563387678</v>
-      </c>
-      <c r="N88" t="s">
-        <v>195</v>
+        <v>39.06917018981533</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -3879,34 +3873,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.0001889248233055</v>
+        <v>0.0001744822511682</v>
       </c>
       <c r="C89">
-        <v>0.0001932692684931</v>
+        <v>0.00017573403602</v>
       </c>
       <c r="D89">
-        <v>0.0001889248233055</v>
+        <v>0.0001744822511682</v>
       </c>
       <c r="E89">
-        <v>0.0001929286809172</v>
+        <v>0.0001756705023581</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0.0002024992921211388</v>
+        <v>0.0001760506967733167</v>
       </c>
       <c r="H89">
-        <v>0.00020783638028657</v>
+        <v>0.000175253843917695</v>
       </c>
       <c r="I89">
-        <v>0.00021183636369335</v>
+        <v>0.00017522795533291</v>
       </c>
       <c r="L89">
-        <v>36.11761382792336</v>
+        <v>50.77352418084546</v>
       </c>
       <c r="M89">
-        <v>34.7064754254415</v>
+        <v>44.39735949079457</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -3914,34 +3908,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.0001930064463522</v>
+        <v>0.0001757463032845</v>
       </c>
       <c r="C90">
-        <v>0.0001990893797483</v>
+        <v>0.0001758064026944</v>
       </c>
       <c r="D90">
-        <v>0.0001918925845529</v>
+        <v>0.0001736671256367</v>
       </c>
       <c r="E90">
-        <v>0.0001918925845529</v>
+        <v>0.0001741691376082</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.0002015350459785716</v>
+        <v>0.0001758796459401243</v>
       </c>
       <c r="H90">
-        <v>0.000206439303292385</v>
+        <v>0.00017524475042587</v>
       </c>
       <c r="I90">
-        <v>0.00021091495436845</v>
+        <v>0.0001752193667925433</v>
       </c>
       <c r="L90">
-        <v>34.71338770268233</v>
+        <v>41.07973405668409</v>
       </c>
       <c r="M90">
-        <v>33.83803620224639</v>
+        <v>39.80587571685749</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -3949,34 +3943,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.0001918344787554</v>
+        <v>0.0001742827007547</v>
       </c>
       <c r="C91">
-        <v>0.0001919221540447</v>
+        <v>0.0001752809184836</v>
       </c>
       <c r="D91">
-        <v>0.00018825045845</v>
+        <v>0.0001736417616484</v>
       </c>
       <c r="E91">
-        <v>0.0001911162689793</v>
+        <v>0.0001747329952195</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.0002005878844331833</v>
+        <v>0.0001757754049655221</v>
       </c>
       <c r="H91">
-        <v>0.00020489542803257</v>
+        <v>0.000175221377867225</v>
       </c>
       <c r="I91">
-        <v>0.0002099636214552033</v>
+        <v>0.0001751550924381733</v>
       </c>
       <c r="L91">
-        <v>33.61184577564228</v>
+        <v>45.47783461150075</v>
       </c>
       <c r="M91">
-        <v>33.16834355014651</v>
+        <v>42.22257178051429</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -3984,34 +3978,37 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>0.0001914295717142</v>
+        <v>0.0001746435591485</v>
       </c>
       <c r="C92">
-        <v>0.0001925191754708</v>
+        <v>0.0001746435591485</v>
       </c>
       <c r="D92">
-        <v>0.0001891898573376</v>
+        <v>0.0001689888595137</v>
       </c>
       <c r="E92">
-        <v>0.0001899746857816</v>
+        <v>0.0001689888595137</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.0001996230481921303</v>
+        <v>0.0001751584462880837</v>
       </c>
       <c r="H92">
-        <v>0.0002031321462709</v>
+        <v>0.00017492589831813</v>
       </c>
       <c r="I92">
-        <v>0.0002089704425694633</v>
+        <v>0.00017492508971671</v>
       </c>
       <c r="L92">
-        <v>31.93536818521886</v>
+        <v>24.51005329305926</v>
       </c>
       <c r="M92">
-        <v>32.16037846954185</v>
+        <v>29.31183825700431</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4019,34 +4016,37 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>0.0001900082424981</v>
+        <v>0.0001681805588304</v>
       </c>
       <c r="C93">
-        <v>0.0001905743556562</v>
+        <v>0.0001694477832643</v>
       </c>
       <c r="D93">
-        <v>0.000188382473425</v>
+        <v>0.0001667908363742</v>
       </c>
       <c r="E93">
-        <v>0.0001891658466774</v>
+        <v>0.0001691684155957</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.000198672393508973</v>
+        <v>0.0001746138980433215</v>
       </c>
       <c r="H93">
-        <v>0.00020085004871357</v>
+        <v>0.000174723585223495</v>
       </c>
       <c r="I93">
-        <v>0.0002079429357156967</v>
+        <v>0.0001747080731243967</v>
       </c>
       <c r="L93">
-        <v>30.71426433135253</v>
+        <v>25.71449212392541</v>
       </c>
       <c r="M93">
-        <v>31.43154765771945</v>
+        <v>30.0320586968347</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4054,34 +4054,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>0.0001886268437374</v>
+        <v>0.0001692860387265</v>
       </c>
       <c r="C94">
-        <v>0.0001900689094327</v>
+        <v>0.0001694611128186</v>
       </c>
       <c r="D94">
-        <v>0.0001881603820947</v>
+        <v>0.0001670583733357</v>
       </c>
       <c r="E94">
-        <v>0.0001884086523205</v>
+        <v>0.0001679515407886</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0.0001977393261282027</v>
+        <v>0.0001740082292019832</v>
       </c>
       <c r="H94">
-        <v>0.000198533888760675</v>
+        <v>0.000174326188425715</v>
       </c>
       <c r="I94">
-        <v>0.0002068720845272333</v>
+        <v>0.00017447509308108</v>
       </c>
       <c r="L94">
-        <v>29.52528968642384</v>
+        <v>22.92569774544878</v>
       </c>
       <c r="M94">
-        <v>30.72946146020425</v>
+        <v>27.95339701479083</v>
       </c>
       <c r="N94" t="s">
         <v>195</v>
@@ -4092,34 +4092,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>0.000188497651834</v>
+        <v>0.0001681403373368</v>
       </c>
       <c r="C95">
-        <v>0.0001892981672426</v>
+        <v>0.0001701615401543</v>
       </c>
       <c r="D95">
-        <v>0.0001870851847343</v>
+        <v>0.0001681403373368</v>
       </c>
       <c r="E95">
-        <v>0.000188619524124</v>
+        <v>0.0001692669466137</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.0001969102532187297</v>
+        <v>0.0001735772035121393</v>
       </c>
       <c r="H95">
-        <v>0.000196227295236845</v>
+        <v>0.000174060191784465</v>
       </c>
       <c r="I95">
-        <v>0.0002058109452869934</v>
+        <v>0.0001742458412384433</v>
       </c>
       <c r="L95">
-        <v>30.369778533705</v>
+        <v>31.90641687190015</v>
       </c>
       <c r="M95">
-        <v>31.19042794801423</v>
+        <v>33.32564524905293</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4127,37 +4127,34 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.0001886157842818</v>
+        <v>0.0001690720528131</v>
       </c>
       <c r="C96">
-        <v>0.0001889627164928</v>
+        <v>0.0001699384738458</v>
       </c>
       <c r="D96">
-        <v>0.000182084593689</v>
+        <v>0.0001686376344878</v>
       </c>
       <c r="E96">
-        <v>0.0001826345251174</v>
+        <v>0.0001699344138614</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.0001956124597549725</v>
+        <v>0.0001732460408166175</v>
       </c>
       <c r="H96">
-        <v>0.000193638961354685</v>
+        <v>0.000173782438650905</v>
       </c>
       <c r="I96">
-        <v>0.0002045591187197267</v>
+        <v>0.00017406139280254</v>
       </c>
       <c r="L96">
-        <v>21.96550884557109</v>
+        <v>36.15323012699034</v>
       </c>
       <c r="M96">
-        <v>25.91858634047671</v>
-      </c>
-      <c r="N96" t="s">
-        <v>195</v>
+        <v>35.93606909996636</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4165,34 +4162,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.0001818645978346</v>
+        <v>0.0001699342392385</v>
       </c>
       <c r="C97">
-        <v>0.0001828706008382</v>
+        <v>0.0001699342392385</v>
       </c>
       <c r="D97">
-        <v>0.0001775496930349</v>
+        <v>0.0001672071957727</v>
       </c>
       <c r="E97">
-        <v>0.0001783619227353</v>
+        <v>0.0001678427215665</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.0001940442291168204</v>
+        <v>0.0001727548299756978</v>
       </c>
       <c r="H97">
-        <v>0.0001909090984554</v>
+        <v>0.000173417097539585</v>
       </c>
       <c r="I97">
-        <v>0.0002031278204715667</v>
+        <v>0.0001737882383167233</v>
       </c>
       <c r="L97">
-        <v>17.97139030745174</v>
+        <v>29.63681350288743</v>
       </c>
       <c r="M97">
-        <v>22.93795177081118</v>
+        <v>31.74197071344307</v>
       </c>
       <c r="N97" t="s">
         <v>195</v>
@@ -4203,37 +4200,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.0001781981409294</v>
+        <v>0.0001676786341704</v>
       </c>
       <c r="C98">
-        <v>0.000180085102329</v>
+        <v>0.0001716207625577</v>
       </c>
       <c r="D98">
-        <v>0.0001722427550703</v>
+        <v>0.0001653000508667</v>
       </c>
       <c r="E98">
-        <v>0.000175760636921</v>
+        <v>0.0001711226213956</v>
       </c>
       <c r="F98">
         <v>2</v>
       </c>
       <c r="G98">
-        <v>0.0001923820843717458</v>
+        <v>0.0001726064473775071</v>
       </c>
       <c r="H98">
-        <v>0.000187988963443735</v>
+        <v>0.00017319211547141</v>
       </c>
       <c r="I98">
-        <v>0.0002016799466218333</v>
+        <v>0.0001736615163584033</v>
       </c>
       <c r="L98">
-        <v>15.98102648432401</v>
+        <v>46.6121821197218</v>
       </c>
       <c r="M98">
-        <v>21.3296710388685</v>
-      </c>
-      <c r="N98" t="s">
-        <v>195</v>
+        <v>42.9798392798979</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4241,37 +4235,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>0.0001754601689754</v>
+        <v>0.0001712907105684</v>
       </c>
       <c r="C99">
-        <v>0.0001762149913702</v>
+        <v>0.0001727380731608</v>
       </c>
       <c r="D99">
-        <v>0.0001741323794703</v>
+        <v>0.0001703007146716</v>
       </c>
       <c r="E99">
-        <v>0.0001748734648572</v>
+        <v>0.000170571176568</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.0001907903916886053</v>
+        <v>0.000172421422758461</v>
       </c>
       <c r="H99">
-        <v>0.00018712465025596</v>
+        <v>0.00017288004382857</v>
       </c>
       <c r="I99">
-        <v>0.0002002511905932667</v>
+        <v>0.0001736275235694933</v>
       </c>
       <c r="L99">
-        <v>15.32961652866821</v>
+        <v>44.578006845224</v>
       </c>
       <c r="M99">
-        <v>20.7941784568984</v>
-      </c>
-      <c r="N99" t="s">
-        <v>195</v>
+        <v>41.73571370333889</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4279,37 +4270,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.0001746203197399</v>
+        <v>0.0001706883631413</v>
       </c>
       <c r="C100">
-        <v>0.0001772164978319</v>
+        <v>0.000170701809111</v>
       </c>
       <c r="D100">
-        <v>0.0001745147455949</v>
+        <v>0.0001699466665741</v>
       </c>
       <c r="E100">
-        <v>0.0001766643254086</v>
+        <v>0.0001704343012534</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.0001895062038449685</v>
+        <v>0.00017224077534891</v>
       </c>
       <c r="H100">
-        <v>0.000186508792830815</v>
+        <v>0.000172560907958485</v>
       </c>
       <c r="I100">
-        <v>0.0001988121972923334</v>
+        <v>0.00017349696669645</v>
       </c>
       <c r="L100">
-        <v>22.5032569813107</v>
+        <v>44.0413152402897</v>
       </c>
       <c r="M100">
-        <v>24.89326224795358</v>
-      </c>
-      <c r="N100" t="s">
-        <v>195</v>
+        <v>41.41525833444905</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4317,37 +4305,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.000176697736606</v>
+        <v>0.0001705846079858</v>
       </c>
       <c r="C101">
-        <v>0.0001771566749084</v>
+        <v>0.0001710851065581</v>
       </c>
       <c r="D101">
-        <v>0.0001744267938192</v>
+        <v>0.0001703396264929</v>
       </c>
       <c r="E101">
-        <v>0.0001744267938192</v>
+        <v>0.0001708445633994</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.0001881353483880804</v>
+        <v>0.0001721138469898636</v>
       </c>
       <c r="H101">
-        <v>0.00018577444643592</v>
+        <v>0.00017226228010253</v>
       </c>
       <c r="I101">
-        <v>0.0001972266312804533</v>
+        <v>0.0001733517705966833</v>
       </c>
       <c r="L101">
-        <v>20.10856782708405</v>
+        <v>46.22443701165306</v>
       </c>
       <c r="M101">
-        <v>23.27269010825177</v>
-      </c>
-      <c r="N101" t="s">
-        <v>195</v>
+        <v>42.83213701597375</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4355,37 +4340,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.000174691886059</v>
+        <v>0.0001706374459899</v>
       </c>
       <c r="C102">
-        <v>0.0001769570226315</v>
+        <v>0.0001707082265056</v>
       </c>
       <c r="D102">
-        <v>0.000174331391463</v>
+        <v>0.0001699621061561</v>
       </c>
       <c r="E102">
-        <v>0.0001766612258506</v>
+        <v>0.0001704799360595</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.0001870922463392186</v>
+        <v>0.0001719653096325578</v>
       </c>
       <c r="H102">
-        <v>0.000185221523861345</v>
+        <v>0.000171996169956345</v>
       </c>
       <c r="I102">
-        <v>0.0001956073281083067</v>
+        <v>0.0001732044867821467</v>
       </c>
       <c r="L102">
-        <v>28.63977474089389</v>
+        <v>44.48902094085663</v>
       </c>
       <c r="M102">
-        <v>28.29300257023293</v>
-      </c>
-      <c r="N102" t="s">
-        <v>195</v>
+        <v>41.86307463683073</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4393,37 +4375,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.0001766680215951</v>
+        <v>0.0001704392925603</v>
       </c>
       <c r="C103">
-        <v>0.0001767461944837</v>
+        <v>0.0001707633346086</v>
       </c>
       <c r="D103">
-        <v>0.0001753965188981</v>
+        <v>0.0001700150314718</v>
       </c>
       <c r="E103">
-        <v>0.0001758889411576</v>
+        <v>0.000170305618667</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0.0001860737640499805</v>
+        <v>0.0001718144286356889</v>
       </c>
       <c r="H103">
-        <v>0.00018473446179991</v>
+        <v>0.000171767651045175</v>
       </c>
       <c r="I103">
-        <v>0.0001936433662194267</v>
+        <v>0.0001731075181547667</v>
       </c>
       <c r="L103">
-        <v>27.49801578556059</v>
+        <v>43.60848517751911</v>
       </c>
       <c r="M103">
-        <v>27.62032866521702</v>
-      </c>
-      <c r="N103" t="s">
-        <v>195</v>
+        <v>41.38106049277327</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4431,37 +4410,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.0001757211721269</v>
+        <v>0.0001702981535345</v>
       </c>
       <c r="C104">
-        <v>0.0001763000327628</v>
+        <v>0.0001709325442789</v>
       </c>
       <c r="D104">
-        <v>0.0001753440592437</v>
+        <v>0.0001702981535345</v>
       </c>
       <c r="E104">
-        <v>0.0001756789133651</v>
+        <v>0.0001708403869997</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0.0001851287776240823</v>
+        <v>0.0001717258793960535</v>
       </c>
       <c r="H104">
-        <v>0.000184219748189155</v>
+        <v>0.00017156244721258</v>
       </c>
       <c r="I104">
-        <v>0.0001916749349523167</v>
+        <v>0.00017293888182995</v>
       </c>
       <c r="L104">
-        <v>27.16666121994815</v>
+        <v>47.21417953964598</v>
       </c>
       <c r="M104">
-        <v>27.42933243146647</v>
-      </c>
-      <c r="N104" t="s">
-        <v>195</v>
+        <v>43.52919886719987</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4469,37 +4445,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.0001756027631927</v>
+        <v>0.0001708325580693</v>
       </c>
       <c r="C105">
-        <v>0.0001756383280735</v>
+        <v>0.0001716358819976</v>
       </c>
       <c r="D105">
-        <v>0.0001748299109749</v>
+        <v>0.0001706968614598</v>
       </c>
       <c r="E105">
-        <v>0.0001749409420881</v>
+        <v>0.0001706968614598</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0.0001842026107571748</v>
+        <v>0.0001716323323109396</v>
       </c>
       <c r="H105">
-        <v>0.000183430420292955</v>
+        <v>0.00017135304078687</v>
       </c>
       <c r="I105">
-        <v>0.0001896812532019</v>
+        <v>0.0001728092145639867</v>
       </c>
       <c r="L105">
-        <v>25.93147066181031</v>
+        <v>46.31992929531224</v>
       </c>
       <c r="M105">
-        <v>26.72990799807225</v>
-      </c>
-      <c r="N105" t="s">
-        <v>195</v>
+        <v>43.0729756709705</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4507,34 +4480,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.0001749739894876</v>
+        <v>0.0001708287891233</v>
       </c>
       <c r="C106">
-        <v>0.0001765023916959</v>
+        <v>0.0001709733041934</v>
       </c>
       <c r="D106">
-        <v>0.0001745193731039</v>
+        <v>0.0001706049661152</v>
       </c>
       <c r="E106">
-        <v>0.0001761445018928</v>
+        <v>0.0001708013005554</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.000183470055405868</v>
+        <v>0.0001715567839695269</v>
       </c>
       <c r="H106">
-        <v>0.00018268679414172</v>
+        <v>0.00017116864692065</v>
       </c>
       <c r="I106">
-        <v>0.0001877393631729733</v>
+        <v>0.0001726529420314134</v>
       </c>
       <c r="L106">
-        <v>31.63461907228102</v>
+        <v>47.13953325779251</v>
       </c>
       <c r="M106">
-        <v>29.87069161889887</v>
+        <v>43.53672294040655</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -4542,34 +4515,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.0001763167092576</v>
+        <v>0.0001707981573417</v>
       </c>
       <c r="C107">
-        <v>0.0001765334018273</v>
+        <v>0.0001708291529212</v>
       </c>
       <c r="D107">
-        <v>0.0001754421100486</v>
+        <v>0.0001704210590105</v>
       </c>
       <c r="E107">
-        <v>0.0001754678669385</v>
+        <v>0.0001706666080281</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.0001827425837270164</v>
+        <v>0.0001714758588839426</v>
       </c>
       <c r="H107">
-        <v>0.00018193014984712</v>
+        <v>0.0001709466821921</v>
       </c>
       <c r="I107">
-        <v>0.00018582298604689</v>
+        <v>0.0001725035108392533</v>
       </c>
       <c r="L107">
-        <v>30.16558464105918</v>
+        <v>46.11790369810805</v>
       </c>
       <c r="M107">
-        <v>29.11507647532235</v>
+        <v>43.04964602162105</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4577,34 +4550,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.000175600827788</v>
+        <v>0.0001706987823126</v>
       </c>
       <c r="C108">
-        <v>0.0001762648898875</v>
+        <v>0.0001713547244435</v>
       </c>
       <c r="D108">
-        <v>0.0001752572134137</v>
+        <v>0.0001706987823126</v>
       </c>
       <c r="E108">
-        <v>0.000176037356141</v>
+        <v>0.0001709641801426</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.000182133017582833</v>
+        <v>0.0001714293426347296</v>
       </c>
       <c r="H108">
-        <v>0.000181282382982265</v>
+        <v>0.000170772654382695</v>
       </c>
       <c r="I108">
-        <v>0.0001838854533464467</v>
+        <v>0.0001723482414187033</v>
       </c>
       <c r="L108">
-        <v>33.10685254586844</v>
+        <v>48.87193444829231</v>
       </c>
       <c r="M108">
-        <v>30.70391521736147</v>
+        <v>44.526245751815</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4612,34 +4585,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>0.0001759252481861</v>
+        <v>0.0001709575153654</v>
       </c>
       <c r="C109">
-        <v>0.0001762839528964</v>
+        <v>0.0001715593680273</v>
       </c>
       <c r="D109">
-        <v>0.0001749242801452</v>
+        <v>0.000170655286638</v>
       </c>
       <c r="E109">
-        <v>0.0001749242801452</v>
+        <v>0.0001707326009636</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.0001814776778157755</v>
+        <v>0.0001713660024828087</v>
       </c>
       <c r="H109">
-        <v>0.000180382162943665</v>
+        <v>0.00017052575931297</v>
       </c>
       <c r="I109">
-        <v>0.00018331093839753</v>
+        <v>0.0001721455744699967</v>
       </c>
       <c r="L109">
-        <v>30.30070997684969</v>
+        <v>46.77863366837413</v>
       </c>
       <c r="M109">
-        <v>29.32059497893716</v>
+        <v>43.5792712556408</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4647,37 +4620,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.000174827495357</v>
+        <v>0.0001706998446024</v>
       </c>
       <c r="C110">
-        <v>0.0001751380477799</v>
+        <v>0.0001709678617771</v>
       </c>
       <c r="D110">
-        <v>0.0001712304510874</v>
+        <v>0.0001704447204247</v>
       </c>
       <c r="E110">
-        <v>0.0001715909602353</v>
+        <v>0.0001709101197775</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.0001805788853084595</v>
+        <v>0.0001713245586005079</v>
       </c>
       <c r="H110">
-        <v>0.000179367081727785</v>
+        <v>0.000170362808421435</v>
       </c>
       <c r="I110">
-        <v>0.0001827312546083233</v>
+        <v>0.0001719486778407433</v>
       </c>
       <c r="L110">
-        <v>23.57005733047491</v>
+        <v>48.67447886823029</v>
       </c>
       <c r="M110">
-        <v>25.60079724542852</v>
-      </c>
-      <c r="N110" t="s">
-        <v>195</v>
+        <v>44.55276168159823</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -4685,34 +4655,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.0001713489473331</v>
+        <v>0.000170982137206</v>
       </c>
       <c r="C111">
-        <v>0.0001747112983139</v>
+        <v>0.0001712514349492</v>
       </c>
       <c r="D111">
-        <v>0.0001711369259282</v>
+        <v>0.0001702112494967</v>
       </c>
       <c r="E111">
-        <v>0.0001743510074447</v>
+        <v>0.0001703182933852</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.0001800127145935723</v>
+        <v>0.0001712330799445708</v>
       </c>
       <c r="H111">
-        <v>0.000178528818651055</v>
+        <v>0.00017014207332972</v>
       </c>
       <c r="I111">
-        <v>0.0001822391641325767</v>
+        <v>0.0001717320502696334</v>
       </c>
       <c r="L111">
-        <v>36.67341207728551</v>
+        <v>42.93781670539536</v>
       </c>
       <c r="M111">
-        <v>33.16205171346957</v>
+        <v>41.9538053824681</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -4720,2628 +4690,2667 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.0001744622277328</v>
+        <v>0.000170394545421</v>
       </c>
       <c r="C112">
-        <v>0.0001753777178237</v>
+        <v>0.0001707015471765</v>
       </c>
       <c r="D112">
-        <v>0.0001743626053212</v>
+        <v>0.0001683978771325</v>
       </c>
       <c r="E112">
-        <v>0.0001752004463924</v>
+        <v>0.000168849932379</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.000179575235666193</v>
+        <v>0.0001710164301658826</v>
       </c>
       <c r="H112">
-        <v>0.000177790106681595</v>
+        <v>0.000170135126972985</v>
       </c>
       <c r="I112">
-        <v>0.0001818218564342534</v>
+        <v>0.0001715003100494933</v>
       </c>
       <c r="L112">
-        <v>40.22179142511842</v>
+        <v>32.30922835714339</v>
       </c>
       <c r="M112">
-        <v>35.3400681736203</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>36.29646989524674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.0001750586379785</v>
+        <v>0.000168808561284</v>
       </c>
       <c r="C113">
-        <v>0.0001751952368067</v>
+        <v>0.0001690350909484</v>
       </c>
       <c r="D113">
-        <v>0.0001743729808367</v>
+        <v>0.0001668976037763</v>
       </c>
       <c r="E113">
-        <v>0.0001748984504956</v>
+        <v>0.0001680626155575</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.0001791500733779573</v>
+        <v>0.0001707479015651205</v>
       </c>
       <c r="H113">
-        <v>0.000177076736872505</v>
+        <v>0.000170079836971075</v>
       </c>
       <c r="I113">
-        <v>0.0001814641320378967</v>
+        <v>0.0001712731973383967</v>
       </c>
       <c r="L113">
-        <v>39.34013138987484</v>
+        <v>28.11171421214679</v>
       </c>
       <c r="M113">
-        <v>34.90458232314275</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>33.67441373709334</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.0001749820366967</v>
+        <v>0.0001680985005805</v>
       </c>
       <c r="C114">
-        <v>0.000176025685505</v>
+        <v>0.0001680985005805</v>
       </c>
       <c r="D114">
-        <v>0.0001731676020426</v>
+        <v>0.0001654464140301</v>
       </c>
       <c r="E114">
-        <v>0.0001732146774884</v>
+        <v>0.0001673809310887</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.0001786104919334521</v>
+        <v>0.0001704418133399914</v>
       </c>
       <c r="H114">
-        <v>0.0001763170381309</v>
+        <v>0.00017005130648608</v>
       </c>
       <c r="I114">
-        <v>0.0001810388484348367</v>
+        <v>0.0001710210795863</v>
       </c>
       <c r="L114">
-        <v>34.58499973804865</v>
+        <v>24.9538752855507</v>
       </c>
       <c r="M114">
-        <v>32.49990946702592</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>31.5492830299304</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.0001732070377329</v>
+        <v>0.0001672364014666</v>
       </c>
       <c r="C115">
-        <v>0.000177368579898</v>
+        <v>0.0001685686438577</v>
       </c>
       <c r="D115">
-        <v>0.0001732070377329</v>
+        <v>0.0001655219239182</v>
       </c>
       <c r="E115">
-        <v>0.0001758994767442</v>
+        <v>0.0001671123027335</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.0001783640360071564</v>
+        <v>0.0001701391305575831</v>
       </c>
       <c r="H115">
-        <v>0.00017568103576191</v>
+        <v>0.00016994357429207</v>
       </c>
       <c r="I115">
-        <v>0.0001805445809925733</v>
+        <v>0.0001707619900116166</v>
       </c>
       <c r="L115">
-        <v>46.24120227461908</v>
+        <v>23.77013800855757</v>
       </c>
       <c r="M115">
-        <v>39.6404708671506</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>30.72637727618463</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.0001761535095283</v>
+        <v>0.0001669769844738</v>
       </c>
       <c r="C116">
-        <v>0.0001765535562299</v>
+        <v>0.0001671373320277</v>
       </c>
       <c r="D116">
-        <v>0.0001741511659929</v>
+        <v>0.0001620123075554</v>
       </c>
       <c r="E116">
-        <v>0.0001745868794387</v>
+        <v>0.0001630659971851</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.0001780206581372968</v>
+        <v>0.0001694961184328119</v>
       </c>
       <c r="H116">
-        <v>0.000175278653477975</v>
+        <v>0.000169600153458255</v>
       </c>
       <c r="I116">
-        <v>0.0001799969094766133</v>
+        <v>0.0001703812173217933</v>
       </c>
       <c r="L116">
-        <v>42.11380362809088</v>
+        <v>13.17742479602945</v>
       </c>
       <c r="M116">
-        <v>37.54909610615469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>21.59102395397886</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.0001743766915751</v>
+        <v>0.0001630365877645</v>
       </c>
       <c r="C117">
-        <v>0.0001755674602463</v>
+        <v>0.0001651272323215</v>
       </c>
       <c r="D117">
-        <v>0.0001740884181344</v>
+        <v>0.0001619908725842</v>
       </c>
       <c r="E117">
-        <v>0.0001754894765326</v>
+        <v>0.0001619908725842</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>0.000177790550718688</v>
+        <v>0.0001688138233556653</v>
       </c>
       <c r="H117">
-        <v>0.00017513503116784</v>
+        <v>0.00016930756100914</v>
       </c>
       <c r="I117">
-        <v>0.0001794932002666833</v>
+        <v>0.00016994404965463</v>
       </c>
       <c r="L117">
-        <v>45.85266474894632</v>
+        <v>11.62843225778983</v>
       </c>
       <c r="M117">
-        <v>39.89729137384441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>19.89819714631649</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.0001757702266331</v>
+        <v>0.0001620401599211</v>
       </c>
       <c r="C118">
-        <v>0.0001759252481861</v>
+        <v>0.0001642556599108</v>
       </c>
       <c r="D118">
-        <v>0.0001745670597301</v>
+        <v>0.0001620401599211</v>
       </c>
       <c r="E118">
-        <v>0.0001751495437929</v>
+        <v>0.000163838660228</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0.0001775504591799799</v>
+        <v>0.0001683615357986048</v>
       </c>
       <c r="H118">
-        <v>0.000175104476511435</v>
+        <v>0.00016894336295076</v>
       </c>
       <c r="I118">
-        <v>0.0001790317619451767</v>
+        <v>0.00016959051378454</v>
       </c>
       <c r="L118">
-        <v>44.63127245638962</v>
+        <v>27.99406665869142</v>
       </c>
       <c r="M118">
-        <v>39.29798416704873</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>30.0492197396809</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.0001751437957864</v>
+        <v>0.0001638586254557</v>
       </c>
       <c r="C119">
-        <v>0.0001766508212313</v>
+        <v>0.0001645020529394</v>
       </c>
       <c r="D119">
-        <v>0.0001750431838445</v>
+        <v>0.0001626464072614</v>
       </c>
       <c r="E119">
-        <v>0.0001756222627591</v>
+        <v>0.0001626464072614</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>0.0001773751685962636</v>
+        <v>0.000167841978658859</v>
       </c>
       <c r="H119">
-        <v>0.00017514191640653</v>
+        <v>0.00016854712448543</v>
       </c>
       <c r="I119">
-        <v>0.0001784548813399067</v>
+        <v>0.0001691563772813167</v>
       </c>
       <c r="L119">
-        <v>46.84633682118519</v>
+        <v>24.6768160348439</v>
       </c>
       <c r="M119">
-        <v>40.63347957412669</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>27.61729732531969</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.0001756435376591</v>
+        <v>0.0001628592726774</v>
       </c>
       <c r="C120">
-        <v>0.0001770463131833</v>
+        <v>0.0001629761536605</v>
       </c>
       <c r="D120">
-        <v>0.0001729430514387</v>
+        <v>0.0001585862337378</v>
       </c>
       <c r="E120">
-        <v>0.0001768126094248</v>
+        <v>0.0001585862337378</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0.0001773240268534032</v>
+        <v>0.000167000547302399</v>
       </c>
       <c r="H120">
-        <v>0.00017514933060734</v>
+        <v>0.00016795472110965</v>
       </c>
       <c r="I120">
-        <v>0.0001779522155023033</v>
+        <v>0.0001686369471523033</v>
       </c>
       <c r="L120">
-        <v>52.25704440552504</v>
+        <v>16.97185666532998</v>
       </c>
       <c r="M120">
-        <v>43.97595965018459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>21.29634565731889</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.0001770879025571</v>
+        <v>0.0001590639003552</v>
       </c>
       <c r="C121">
-        <v>0.00017772562569</v>
+        <v>0.0001610660838196</v>
       </c>
       <c r="D121">
-        <v>0.0001757340651238</v>
+        <v>0.0001583779230713</v>
       </c>
       <c r="E121">
-        <v>0.0001768170186551</v>
+        <v>0.000160394134582</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0.000177277935199012</v>
+        <v>0.0001663999643278173</v>
       </c>
       <c r="H121">
-        <v>0.000175268841849135</v>
+        <v>0.00016743219966878</v>
       </c>
       <c r="I121">
-        <v>0.00017747557382483</v>
+        <v>0.0001681589851310534</v>
       </c>
       <c r="L121">
-        <v>52.27728800915565</v>
+        <v>28.20179454994254</v>
       </c>
       <c r="M121">
-        <v>43.9885395776064</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>29.08001898545072</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.0001769392983987</v>
+        <v>0.0001605297584319</v>
       </c>
       <c r="C122">
-        <v>0.0001786709472071</v>
+        <v>0.0001620903785806</v>
       </c>
       <c r="D122">
-        <v>0.0001766496425261</v>
+        <v>0.0001596021465957</v>
       </c>
       <c r="E122">
-        <v>0.0001768171205185</v>
+        <v>0.0001606510195415</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0.0001772360429553291</v>
+        <v>0.0001658773329836066</v>
       </c>
       <c r="H122">
-        <v>0.00017527663658253</v>
+        <v>0.00016694075384288</v>
       </c>
       <c r="I122">
-        <v>0.00017703698831606</v>
+        <v>0.00016788105713198</v>
       </c>
       <c r="L122">
-        <v>52.27781391350347</v>
+        <v>29.72126601713219</v>
       </c>
       <c r="M122">
-        <v>43.98885248674558</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>30.13728414384817</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.0001767927606124</v>
+        <v>0.0001603821874596</v>
       </c>
       <c r="C123">
-        <v>0.000176953166374</v>
+        <v>0.0001632691855775</v>
       </c>
       <c r="D123">
-        <v>0.0001758021389832</v>
+        <v>0.0001602161646587</v>
       </c>
       <c r="E123">
-        <v>0.0001758021389832</v>
+        <v>0.0001632691855775</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0.0001771056880487719</v>
+        <v>0.0001656402286739606</v>
       </c>
       <c r="H123">
-        <v>0.00017527229647381</v>
+        <v>0.000166588932188405</v>
       </c>
       <c r="I123">
-        <v>0.00017659153139292</v>
+        <v>0.0001676844161313733</v>
       </c>
       <c r="L123">
-        <v>46.52994705421118</v>
+        <v>43.44471278258566</v>
       </c>
       <c r="M123">
-        <v>41.50100030359477</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>39.96131411158953</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.0001757312275003</v>
+        <v>0.0001633594511076</v>
       </c>
       <c r="C124">
-        <v>0.0001758617581799</v>
+        <v>0.000164820725331</v>
       </c>
       <c r="D124">
-        <v>0.0001748759968904</v>
+        <v>0.0001623183343326</v>
       </c>
       <c r="E124">
-        <v>0.0001748759968904</v>
+        <v>0.000162458862178</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0.0001769029888525563</v>
+        <v>0.0001653510135379641</v>
       </c>
       <c r="H124">
-        <v>0.000175232150650075</v>
+        <v>0.00016616985594732</v>
       </c>
       <c r="I124">
-        <v>0.0001761404428785833</v>
+        <v>0.0001675013268443533</v>
       </c>
       <c r="L124">
-        <v>41.81093423625094</v>
+        <v>40.6789035086728</v>
       </c>
       <c r="M124">
-        <v>39.31598126956678</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.17220298171734</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.0001748447102727</v>
+        <v>0.0001624559517949</v>
       </c>
       <c r="C125">
-        <v>0.0001755849807523</v>
+        <v>0.0001644315925659</v>
       </c>
       <c r="D125">
-        <v>0.0001745689369272</v>
+        <v>0.0001623903081053</v>
       </c>
       <c r="E125">
-        <v>0.0001749444636516</v>
+        <v>0.0001635421504033</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125">
-        <v>0.0001767249411070148</v>
+        <v>0.0001651865714348129</v>
       </c>
       <c r="H125">
-        <v>0.00017523232672825</v>
+        <v>0.000165812120394495</v>
       </c>
       <c r="I125">
-        <v>0.0001756846075295033</v>
+        <v>0.0001673105003040067</v>
       </c>
       <c r="L125">
-        <v>42.29764040975215</v>
+        <v>45.8623962218558</v>
       </c>
       <c r="M125">
-        <v>39.56928479741882</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>41.91609802977855</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.0001748845534166</v>
+        <v>0.0001637456589378</v>
       </c>
       <c r="C126">
-        <v>0.0001757827267283</v>
+        <v>0.0001655394007684</v>
       </c>
       <c r="D126">
-        <v>0.0001737983257044</v>
+        <v>0.0001634340878808</v>
       </c>
       <c r="E126">
-        <v>0.000174884989974</v>
+        <v>0.0001646792225074</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.0001765576728221952</v>
+        <v>0.000165140448805048</v>
       </c>
       <c r="H126">
-        <v>0.00017516935113231</v>
+        <v>0.000165506016492095</v>
       </c>
       <c r="I126">
-        <v>0.00017542628969139</v>
+        <v>0.0001671353272588733</v>
       </c>
       <c r="L126">
-        <v>41.95471177944869</v>
+        <v>50.92601659980557</v>
       </c>
       <c r="M126">
-        <v>39.41537641401559</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>45.63719041816394</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.0001740875013638</v>
+        <v>0.0001647038006922</v>
       </c>
       <c r="C127">
-        <v>0.0001749800721881</v>
+        <v>0.0001650286430958</v>
       </c>
       <c r="D127">
-        <v>0.0001732417294988</v>
+        <v>0.000163308402989</v>
       </c>
       <c r="E127">
-        <v>0.0001744891778798</v>
+        <v>0.0001640782720642</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0.000176369627827432</v>
+        <v>0.0001650438872831527</v>
       </c>
       <c r="H127">
-        <v>0.000175120416679375</v>
+        <v>0.0001651765996939</v>
       </c>
       <c r="I127">
-        <v>0.0001752971981962066</v>
+        <v>0.0001670098456087967</v>
       </c>
       <c r="L127">
-        <v>39.55371450576965</v>
+        <v>48.2431390852883</v>
       </c>
       <c r="M127">
-        <v>38.34637724973443</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>44.03167238416285</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.0001746173657011</v>
+        <v>0.0001642172865103</v>
       </c>
       <c r="C128">
-        <v>0.0001755608827807</v>
+        <v>0.0001647088356548</v>
       </c>
       <c r="D128">
-        <v>0.0001744264736771</v>
+        <v>0.0001624407595954</v>
       </c>
       <c r="E128">
-        <v>0.0001751059025991</v>
+        <v>0.0001627138408366</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>0.0001762547437157655</v>
+        <v>0.0001648320648789207</v>
       </c>
       <c r="H128">
-        <v>0.00017507384400228</v>
+        <v>0.0001647640827286</v>
       </c>
       <c r="I128">
-        <v>0.00017527537371881</v>
+        <v>0.0001667295529234967</v>
       </c>
       <c r="L128">
-        <v>45.0645613330295</v>
+        <v>42.52132850634054</v>
       </c>
       <c r="M128">
-        <v>41.03004922955274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>40.54411185633897</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.000175232955371</v>
+        <v>0.0001631466875551</v>
       </c>
       <c r="C129">
-        <v>0.000175232955371</v>
+        <v>0.0001646009768592</v>
       </c>
       <c r="D129">
-        <v>0.0001741966698318</v>
+        <v>0.0001619889371795</v>
       </c>
       <c r="E129">
-        <v>0.0001744447363307</v>
+        <v>0.000164437413332</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0.0001760901975898505</v>
+        <v>0.0001647961874655642</v>
       </c>
       <c r="H129">
-        <v>0.000175049866811555</v>
+        <v>0.00016444932334702</v>
       </c>
       <c r="I129">
-        <v>0.0001752610827679267</v>
+        <v>0.0001665250941489633</v>
       </c>
       <c r="L129">
-        <v>40.60029805680377</v>
+        <v>50.81196408925557</v>
       </c>
       <c r="M129">
-        <v>39.06676879223415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>46.32736349912089</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.0001744822511682</v>
+        <v>0.0001643025752855</v>
       </c>
       <c r="C130">
-        <v>0.00017573403602</v>
+        <v>0.0001646688324399</v>
       </c>
       <c r="D130">
-        <v>0.0001744822511682</v>
+        <v>0.0001636201632209</v>
       </c>
       <c r="E130">
-        <v>0.0001756705023581</v>
+        <v>0.0001640037808101</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.0001760520434778732</v>
+        <v>0.0001647241504968856</v>
       </c>
       <c r="H130">
-        <v>0.000175253843917695</v>
+        <v>0.00016410400639865</v>
       </c>
       <c r="I130">
-        <v>0.00017522795533291</v>
+        <v>0.00016631074346752</v>
       </c>
       <c r="L130">
-        <v>50.77166287457049</v>
+        <v>48.81893243632906</v>
       </c>
       <c r="M130">
-        <v>44.38038133610569</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>45.13778144739316</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.0001757463032845</v>
+        <v>0.0001640107657294</v>
       </c>
       <c r="C131">
-        <v>0.0001758064026944</v>
+        <v>0.000164276061696</v>
       </c>
       <c r="D131">
-        <v>0.0001736671256367</v>
+        <v>0.0001631030900171</v>
       </c>
       <c r="E131">
-        <v>0.0001741691376082</v>
+        <v>0.0001642552961129</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0.0001758808702169938</v>
+        <v>0.0001646815273710688</v>
       </c>
       <c r="H131">
-        <v>0.00017524475042587</v>
+        <v>0.000163800856535035</v>
       </c>
       <c r="I131">
-        <v>0.0001752193667925433</v>
+        <v>0.0001660911012246367</v>
       </c>
       <c r="L131">
-        <v>41.07894803228116</v>
+        <v>50.09618576819808</v>
       </c>
       <c r="M131">
-        <v>39.80207634128806</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>46.00383939034685</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.0001742827007547</v>
+        <v>0.0001644359726924</v>
       </c>
       <c r="C132">
-        <v>0.0001752809184836</v>
+        <v>0.0001648361940169</v>
       </c>
       <c r="D132">
-        <v>0.0001736417616484</v>
+        <v>0.0001638492249185</v>
       </c>
       <c r="E132">
-        <v>0.0001747329952195</v>
+        <v>0.0001646357268327</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0.0001757765179444943</v>
+        <v>0.0001646773636857625</v>
       </c>
       <c r="H132">
-        <v>0.000175221377867225</v>
+        <v>0.00016359014625772</v>
       </c>
       <c r="I132">
-        <v>0.0001751550924381733</v>
+        <v>0.00016589629425041</v>
       </c>
       <c r="L132">
-        <v>45.47680499568772</v>
+        <v>52.12902783299825</v>
       </c>
       <c r="M132">
-        <v>42.2131507992244</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>47.35748828910918</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.0001746435591485</v>
+        <v>0.0001646438176976</v>
       </c>
       <c r="C133">
-        <v>0.0001746435591485</v>
+        <v>0.0001647834433242</v>
       </c>
       <c r="D133">
-        <v>0.0001689888595137</v>
+        <v>0.0001625760487513</v>
       </c>
       <c r="E133">
-        <v>0.0001689888595137</v>
+        <v>0.0001625760487513</v>
       </c>
       <c r="F133">
         <v>0</v>
       </c>
       <c r="G133">
-        <v>0.0001751594580871494</v>
+        <v>0.0001644863350553568</v>
       </c>
       <c r="H133">
-        <v>0.00017492589831813</v>
+        <v>0.00016331581791741</v>
       </c>
       <c r="I133">
-        <v>0.00017492508971671</v>
+        <v>0.0001656386419198867</v>
       </c>
       <c r="L133">
-        <v>24.51027502108474</v>
+        <v>41.76633631335004</v>
       </c>
       <c r="M133">
-        <v>29.3267223696801</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>41.31811218769497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.0001681805588304</v>
+        <v>0.0001631319755688</v>
       </c>
       <c r="C134">
-        <v>0.0001694477832643</v>
+        <v>0.0001639607653487</v>
       </c>
       <c r="D134">
-        <v>0.0001667908363742</v>
+        <v>0.0001621696574147</v>
       </c>
       <c r="E134">
-        <v>0.0001691684155957</v>
+        <v>0.0001635824446566</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0.000174614817860654</v>
+        <v>0.0001644041632009244</v>
       </c>
       <c r="H134">
-        <v>0.000174723585223495</v>
+        <v>0.000163125893595805</v>
       </c>
       <c r="I134">
-        <v>0.0001747080731243967</v>
+        <v>0.00016539671050845</v>
       </c>
       <c r="L134">
-        <v>25.71466641346686</v>
+        <v>47.5028818320589</v>
       </c>
       <c r="M134">
-        <v>30.04560815171431</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>45.00835006987102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.0001692860387265</v>
+        <v>0.0001638528774492</v>
       </c>
       <c r="C135">
-        <v>0.0001694611128186</v>
+        <v>0.0001638528774492</v>
       </c>
       <c r="D135">
-        <v>0.0001670583733357</v>
+        <v>0.0001625387812964</v>
       </c>
       <c r="E135">
-        <v>0.0001679515407886</v>
+        <v>0.0001637161331018</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.0001740090653995581</v>
+        <v>0.0001643416150100949</v>
       </c>
       <c r="H135">
-        <v>0.000174326188425715</v>
+        <v>0.00016295608511422</v>
       </c>
       <c r="I135">
-        <v>0.00017447509308108</v>
+        <v>0.0001651640195631833</v>
       </c>
       <c r="L135">
-        <v>22.9259437593455</v>
+        <v>48.2645090201332</v>
       </c>
       <c r="M135">
-        <v>27.96918912466636</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>45.49865605245801</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.0001681403373368</v>
+        <v>0.0001637190289329</v>
       </c>
       <c r="C136">
-        <v>0.0001701615401543</v>
+        <v>0.0001643322757445</v>
       </c>
       <c r="D136">
-        <v>0.0001681403373368</v>
+        <v>0.0001635039807297</v>
       </c>
       <c r="E136">
-        <v>0.0001692669466137</v>
+        <v>0.0001643322757445</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0.0001735779636917528</v>
+        <v>0.0001643407659859499</v>
       </c>
       <c r="H136">
-        <v>0.000174060191784465</v>
+        <v>0.00016301939904219</v>
       </c>
       <c r="I136">
-        <v>0.0001742458412384433</v>
+        <v>0.00016494838540282</v>
       </c>
       <c r="L136">
-        <v>31.90637638423687</v>
+        <v>51.88391404024742</v>
       </c>
       <c r="M136">
-        <v>33.33265709206145</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>47.80829454342144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.0001690720528131</v>
+        <v>0.0001643091236473</v>
       </c>
       <c r="C137">
-        <v>0.0001699384738458</v>
+        <v>0.0001647041208343</v>
       </c>
       <c r="D137">
-        <v>0.0001686376344878</v>
+        <v>0.0001634227082831</v>
       </c>
       <c r="E137">
-        <v>0.0001699344138614</v>
+        <v>0.0001634227082831</v>
       </c>
       <c r="F137">
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0.0001732467318889935</v>
+        <v>0.0001642573061947817</v>
       </c>
       <c r="H137">
-        <v>0.000173782438650905</v>
+        <v>0.000163090990827135</v>
       </c>
       <c r="I137">
-        <v>0.00017406139280254</v>
+        <v>0.0001647069220779867</v>
       </c>
       <c r="L137">
-        <v>36.15307784220283</v>
+        <v>46.48320427771559</v>
       </c>
       <c r="M137">
-        <v>35.93925622626164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>44.79068637528449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.0001699342392385</v>
+        <v>0.0001637686509639</v>
       </c>
       <c r="C138">
-        <v>0.0001699342392385</v>
+        <v>0.0001686967152636</v>
       </c>
       <c r="D138">
-        <v>0.0001672071957727</v>
+        <v>0.0001634678919799</v>
       </c>
       <c r="E138">
-        <v>0.0001678427215665</v>
+        <v>0.0001686586911091</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0.0001727554582233123</v>
+        <v>0.0001646574320960834</v>
       </c>
       <c r="H138">
-        <v>0.000173417097539585</v>
+        <v>0.00016333199237119</v>
       </c>
       <c r="I138">
-        <v>0.0001737882383167233</v>
+        <v>0.0001646300724435367</v>
       </c>
       <c r="L138">
-        <v>29.63683246720773</v>
+        <v>68.03278218224264</v>
       </c>
       <c r="M138">
-        <v>31.7498259296236</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>60.31812345113048</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.0001676786341704</v>
+        <v>0.0001691339421086</v>
       </c>
       <c r="C139">
-        <v>0.0001716207625577</v>
+        <v>0.0001699294662103</v>
       </c>
       <c r="D139">
-        <v>0.0001653000508667</v>
+        <v>0.0001680601853877</v>
       </c>
       <c r="E139">
-        <v>0.0001711226213956</v>
+        <v>0.000169252132764</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0.0001726070185117021</v>
+        <v>0.0001650751321568031</v>
       </c>
       <c r="H139">
-        <v>0.00017319211547141</v>
+        <v>0.00016366227864632</v>
       </c>
       <c r="I139">
-        <v>0.0001736615163584033</v>
+        <v>0.00016458072350355</v>
       </c>
       <c r="L139">
-        <v>46.61191227756186</v>
+        <v>69.59392065314869</v>
       </c>
       <c r="M139">
-        <v>42.9751200856011</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>61.63512332563329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.0001712907105684</v>
+        <v>0.000169315826497</v>
       </c>
       <c r="C140">
-        <v>0.0001727380731608</v>
+        <v>0.0001719480060273</v>
       </c>
       <c r="D140">
-        <v>0.0001703007146716</v>
+        <v>0.000169315826497</v>
       </c>
       <c r="E140">
-        <v>0.000170571176568</v>
+        <v>0.0001712940866127</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>0.0001724219419713655</v>
+        <v>0.0001656404916527937</v>
       </c>
       <c r="H140">
-        <v>0.00017288004382857</v>
+        <v>0.000164297671290065</v>
       </c>
       <c r="I140">
-        <v>0.0001736275235694934</v>
+        <v>0.0001645935223980566</v>
       </c>
       <c r="L140">
-        <v>44.57778135226869</v>
+        <v>74.42807418339831</v>
       </c>
       <c r="M140">
-        <v>41.73234392029218</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>65.83664513695352</v>
+      </c>
+      <c r="O140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.0001706883631413</v>
+        <v>0.0001712429511826</v>
       </c>
       <c r="C141">
-        <v>0.000170701809111</v>
+        <v>0.0001718025305308</v>
       </c>
       <c r="D141">
-        <v>0.0001699466665741</v>
+        <v>0.0001708228955976</v>
       </c>
       <c r="E141">
-        <v>0.0001704343012534</v>
+        <v>0.0001710702345008</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0.0001722412473606414</v>
+        <v>0.0001661341046389761</v>
       </c>
       <c r="H141">
-        <v>0.000172560907958485</v>
+        <v>0.000164831476286005</v>
       </c>
       <c r="I141">
-        <v>0.00017349696669645</v>
+        <v>0.00016461858710191</v>
       </c>
       <c r="L141">
-        <v>44.04110095269537</v>
+        <v>72.99677157049629</v>
       </c>
       <c r="M141">
-        <v>41.41222442628039</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>64.99629290025499</v>
+      </c>
+      <c r="O141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.0001705846079858</v>
+        <v>0.0001710412034299</v>
       </c>
       <c r="C142">
-        <v>0.0001710851065581</v>
+        <v>0.0001717560517136</v>
       </c>
       <c r="D142">
-        <v>0.0001703396264929</v>
+        <v>0.0001708265481283</v>
       </c>
       <c r="E142">
-        <v>0.0001708445633994</v>
+        <v>0.0001714314130367</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>0.0001721142760914376</v>
+        <v>0.0001666156781296782</v>
       </c>
       <c r="H142">
-        <v>0.00017226228010253</v>
+        <v>0.000165370495960765</v>
       </c>
       <c r="I142">
-        <v>0.0001733517705966833</v>
+        <v>0.0001647046364571667</v>
       </c>
       <c r="L142">
-        <v>46.22419789376775</v>
+        <v>73.90757039681461</v>
       </c>
       <c r="M142">
-        <v>42.82783876896407</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>65.75579020612739</v>
+      </c>
+      <c r="O142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.0001706374459899</v>
+        <v>0.0001714379905024</v>
       </c>
       <c r="C143">
-        <v>0.0001707082265056</v>
+        <v>0.0001716663537081</v>
       </c>
       <c r="D143">
-        <v>0.0001699621061561</v>
+        <v>0.0001706118782749</v>
       </c>
       <c r="E143">
-        <v>0.0001704799360595</v>
+        <v>0.0001709271746221</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>0.0001719656997248978</v>
+        <v>0.000167007632356262</v>
       </c>
       <c r="H143">
-        <v>0.000171996169956345</v>
+        <v>0.000165753395412995</v>
       </c>
       <c r="I143">
-        <v>0.0001732044867821467</v>
+        <v>0.00016480012175932</v>
       </c>
       <c r="L143">
-        <v>44.48881619326929</v>
+        <v>70.18927371958391</v>
       </c>
       <c r="M143">
-        <v>41.85976773805552</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>63.67846976886901</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.0001704392925603</v>
+        <v>0.0001708345953375</v>
       </c>
       <c r="C144">
-        <v>0.0001707633346086</v>
+        <v>0.000171267602127</v>
       </c>
       <c r="D144">
-        <v>0.0001700150314718</v>
+        <v>0.0001700780267128</v>
       </c>
       <c r="E144">
-        <v>0.000170305618667</v>
+        <v>0.0001712080847937</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0.0001718147832650889</v>
+        <v>0.0001673894916687564</v>
       </c>
       <c r="H144">
-        <v>0.000171767651045175</v>
+        <v>0.00016619085654378</v>
       </c>
       <c r="I144">
-        <v>0.0001731075181547667</v>
+        <v>0.0001649276935494867</v>
       </c>
       <c r="L144">
-        <v>43.6082971115565</v>
+        <v>71.10050663910813</v>
       </c>
       <c r="M144">
-        <v>41.37823129186474</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>64.35407896613894</v>
+      </c>
+      <c r="O144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.0001702981535345</v>
+        <v>0.0001711986697046</v>
       </c>
       <c r="C145">
-        <v>0.0001709325442789</v>
+        <v>0.0001716453261906</v>
       </c>
       <c r="D145">
-        <v>0.0001702981535345</v>
+        <v>0.0001710304641164</v>
       </c>
       <c r="E145">
-        <v>0.0001708403869997</v>
+        <v>0.0001714503159746</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0.0001717262017864172</v>
+        <v>0.0001677586575147421</v>
       </c>
       <c r="H145">
-        <v>0.00017156244721258</v>
+        <v>0.000166586264822345</v>
       </c>
       <c r="I145">
-        <v>0.00017293888182995</v>
+        <v>0.0001650722939908567</v>
       </c>
       <c r="L145">
-        <v>47.21395508973003</v>
+        <v>71.93278996193466</v>
       </c>
       <c r="M145">
-        <v>43.52458562417021</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>64.95935129304189</v>
+      </c>
+      <c r="O145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>0.0001708325580693</v>
+        <v>0.000171432053321</v>
       </c>
       <c r="C146">
-        <v>0.0001716358819976</v>
+        <v>0.00017204642063</v>
       </c>
       <c r="D146">
-        <v>0.0001706968614598</v>
+        <v>0.0001711872901069</v>
       </c>
       <c r="E146">
-        <v>0.0001706968614598</v>
+        <v>0.00017204642063</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0.0001716326253930883</v>
+        <v>0.0001681484541615838</v>
       </c>
       <c r="H146">
-        <v>0.00017135304078687</v>
+        <v>0.000166954624728475</v>
       </c>
       <c r="I146">
-        <v>0.0001728092145639867</v>
+        <v>0.00016537164143902</v>
       </c>
       <c r="L146">
-        <v>46.31972087498762</v>
+        <v>74.00536240682919</v>
       </c>
       <c r="M146">
-        <v>43.06880743465028</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>66.46829741647818</v>
+      </c>
+      <c r="O146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.0001708287891233</v>
+        <v>0.0001718726416584</v>
       </c>
       <c r="C147">
-        <v>0.0001709733041934</v>
+        <v>0.0001729426294332</v>
       </c>
       <c r="D147">
-        <v>0.0001706049661152</v>
+        <v>0.0001718726416584</v>
       </c>
       <c r="E147">
-        <v>0.0001708013005554</v>
+        <v>0.0001727563212625</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0.0001715570504078439</v>
+        <v>0.000168567351170758</v>
       </c>
       <c r="H147">
-        <v>0.00017116864692065</v>
+        <v>0.00016738852718839</v>
       </c>
       <c r="I147">
-        <v>0.0001726529420314134</v>
+        <v>0.0001657304897282967</v>
       </c>
       <c r="L147">
-        <v>47.13931738916965</v>
+        <v>76.34555112387935</v>
       </c>
       <c r="M147">
-        <v>43.53218867239984</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>68.22327075287596</v>
+      </c>
+      <c r="O147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.0001707981573417</v>
+        <v>0.0001726852642605</v>
       </c>
       <c r="C148">
-        <v>0.0001708291529212</v>
+        <v>0.0001730417425278</v>
       </c>
       <c r="D148">
-        <v>0.0001704210590105</v>
+        <v>0.0001719711144687</v>
       </c>
       <c r="E148">
-        <v>0.0001706666080281</v>
+        <v>0.0001729499781504</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>0.0001714761011005945</v>
+        <v>0.0001689657718052709</v>
       </c>
       <c r="H148">
-        <v>0.0001709466821921</v>
+        <v>0.00016790033405408</v>
       </c>
       <c r="I148">
-        <v>0.0001725035108392533</v>
+        <v>0.00016603420032571</v>
       </c>
       <c r="L148">
-        <v>46.11770547146481</v>
+        <v>76.98151401753525</v>
       </c>
       <c r="M148">
-        <v>43.0455778217084</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>68.70446166032534</v>
+      </c>
+      <c r="O148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.0001706987823126</v>
+        <v>0.0001730012154439</v>
       </c>
       <c r="C149">
-        <v>0.0001713547244435</v>
+        <v>0.0001752091484377</v>
       </c>
       <c r="D149">
-        <v>0.0001706987823126</v>
+        <v>0.0001730012154439</v>
       </c>
       <c r="E149">
-        <v>0.0001709641801426</v>
+        <v>0.0001737566053634</v>
       </c>
       <c r="F149">
         <v>0</v>
       </c>
       <c r="G149">
-        <v>0.0001714295628316859</v>
+        <v>0.0001694013021287372</v>
       </c>
       <c r="H149">
-        <v>0.000170772654382695</v>
+        <v>0.00016836629365565</v>
       </c>
       <c r="I149">
-        <v>0.0001723482414187033</v>
+        <v>0.0001664045402624433</v>
       </c>
       <c r="L149">
-        <v>48.8717131931085</v>
+        <v>79.55698327627188</v>
       </c>
       <c r="M149">
-        <v>44.52105631018514</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>70.69501717669883</v>
+      </c>
+      <c r="O149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.0001709575153654</v>
+        <v>0.0001737745042191</v>
       </c>
       <c r="C150">
-        <v>0.0001715593680273</v>
+        <v>0.000174977176357</v>
       </c>
       <c r="D150">
-        <v>0.000170655286638</v>
+        <v>0.0001735929545247</v>
       </c>
       <c r="E150">
-        <v>0.0001707326009636</v>
+        <v>0.0001740707084536</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150">
-        <v>0.0001713662026618599</v>
+        <v>0.0001698257936128156</v>
       </c>
       <c r="H150">
-        <v>0.00017052575931297</v>
+        <v>0.000168869640037825</v>
       </c>
       <c r="I150">
-        <v>0.0001721455744699967</v>
+        <v>0.0001669206894196367</v>
       </c>
       <c r="L150">
-        <v>46.77844601502354</v>
+        <v>80.51218401049755</v>
       </c>
       <c r="M150">
-        <v>43.57496204119062</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>71.45636851673312</v>
+      </c>
+      <c r="O150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.0001706998446024</v>
+        <v>0.0001740847364999</v>
       </c>
       <c r="C151">
-        <v>0.0001709678617771</v>
+        <v>0.0001742396707413</v>
       </c>
       <c r="D151">
-        <v>0.0001704447204247</v>
+        <v>0.0001732411910779</v>
       </c>
       <c r="E151">
-        <v>0.0001709101197775</v>
+        <v>0.0001733347162371</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0.0001713247405814636</v>
+        <v>0.0001701447865786596</v>
       </c>
       <c r="H151">
-        <v>0.000170362808421435</v>
+        <v>0.000169323611044035</v>
       </c>
       <c r="I151">
-        <v>0.0001719486778407433</v>
+        <v>0.0001673520421414733</v>
       </c>
       <c r="J151">
-        <v>0.0001984910108148587</v>
+        <v>0.000185051088822802</v>
       </c>
       <c r="L151">
-        <v>48.67427682827411</v>
+        <v>71.68302166497836</v>
       </c>
       <c r="M151">
-        <v>44.54774889724361</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>67.06001139055437</v>
+      </c>
+      <c r="O151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.000170982137206</v>
+        <v>0.0001732802920741</v>
       </c>
       <c r="C152">
-        <v>0.0001712514349492</v>
+        <v>0.0001735566620482</v>
       </c>
       <c r="D152">
-        <v>0.0001702112494967</v>
+        <v>0.000171146748471</v>
       </c>
       <c r="E152">
-        <v>0.0001703182933852</v>
+        <v>0.0001715798280201</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0.0001712332453818032</v>
+        <v>0.0001702752448915178</v>
       </c>
       <c r="H152">
-        <v>0.00017014207332972</v>
+        <v>0.000169670816103405</v>
       </c>
       <c r="I152">
-        <v>0.0001717320502696333</v>
+        <v>0.0001677163357574267</v>
       </c>
       <c r="J152">
-        <v>0.0001981178622396314</v>
+        <v>0.000184872661527402</v>
       </c>
       <c r="L152">
-        <v>42.93769472201973</v>
+        <v>55.38952504435878</v>
       </c>
       <c r="M152">
-        <v>41.95104042674631</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>57.91100293482232</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.000170394545421</v>
+        <v>0.0001714193786028</v>
       </c>
       <c r="C153">
-        <v>0.0001707015471765</v>
+        <v>0.0001723624591249</v>
       </c>
       <c r="D153">
-        <v>0.0001683978771325</v>
+        <v>0.000171097490238</v>
       </c>
       <c r="E153">
-        <v>0.000168849932379</v>
+        <v>0.0001723624591249</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <v>0.0001710165805633666</v>
+        <v>0.0001704649916400071</v>
       </c>
       <c r="H153">
-        <v>0.000170135126972985</v>
+        <v>0.000170160136622085</v>
       </c>
       <c r="I153">
-        <v>0.0001715003100494933</v>
+        <v>0.0001680194448756733</v>
       </c>
       <c r="J153">
-        <v>0.0001977302075394906</v>
+        <v>0.0001847069634823357</v>
       </c>
       <c r="L153">
-        <v>32.30921498139345</v>
+        <v>59.95613716460412</v>
       </c>
       <c r="M153">
-        <v>36.29776084139445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>60.49926312943433</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.000168808561284</v>
+        <v>0.0001722559682093</v>
       </c>
       <c r="C154">
-        <v>0.0001690350909484</v>
+        <v>0.0001740160660119</v>
       </c>
       <c r="D154">
-        <v>0.0001668976037763</v>
+        <v>0.0001717826380627</v>
       </c>
       <c r="E154">
-        <v>0.0001680626155575</v>
+        <v>0.0001736317499307</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>0.000170748038290106</v>
+        <v>0.0001707528787573428</v>
       </c>
       <c r="H154">
-        <v>0.000170079836971075</v>
+        <v>0.00017066260188579</v>
       </c>
       <c r="I154">
-        <v>0.0001712731973383967</v>
+        <v>0.00016839187446743</v>
       </c>
       <c r="J154">
-        <v>0.0001973372593013186</v>
+        <v>0.0001845602719121154</v>
       </c>
       <c r="L154">
-        <v>28.11172951827172</v>
+        <v>66.25819202716005</v>
       </c>
       <c r="M154">
-        <v>33.67719536481228</v>
-      </c>
-      <c r="N154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>64.33038917181699</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.0001680985005805</v>
+        <v>0.0001735947735141</v>
       </c>
       <c r="C155">
-        <v>0.0001680985005805</v>
+        <v>0.0001735947735141</v>
       </c>
       <c r="D155">
-        <v>0.0001654464140301</v>
+        <v>0.0001724005851428</v>
       </c>
       <c r="E155">
-        <v>0.0001673809310887</v>
+        <v>0.0001724005851428</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>0.0001704419376354327</v>
+        <v>0.0001709026702469299</v>
       </c>
       <c r="H155">
-        <v>0.00017005130648608</v>
+        <v>0.00017109682448784</v>
       </c>
       <c r="I155">
-        <v>0.0001710210795863</v>
+        <v>0.0001686871556254133</v>
       </c>
       <c r="J155">
-        <v>0.0001969404867422111</v>
+        <v>0.0001843992164582172</v>
       </c>
       <c r="L155">
-        <v>24.95390686572315</v>
+        <v>56.54717526273937</v>
       </c>
       <c r="M155">
-        <v>31.55309195646824</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>58.4125006863611</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.0001672364014666</v>
+        <v>0.0001724550966173</v>
       </c>
       <c r="C156">
-        <v>0.0001685686438577</v>
+        <v>0.0001736796839395</v>
       </c>
       <c r="D156">
-        <v>0.0001655219239182</v>
+        <v>0.0001721153239486</v>
       </c>
       <c r="E156">
-        <v>0.0001671123027335</v>
+        <v>0.0001730663207126</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156">
-        <v>0.0001701392435534388</v>
+        <v>0.000171099365743809</v>
       </c>
       <c r="H156">
-        <v>0.00016994357429207</v>
+        <v>0.000171533526736245</v>
       </c>
       <c r="I156">
-        <v>0.0001707619900116167</v>
+        <v>0.0001689667255655867</v>
       </c>
       <c r="J156">
-        <v>0.0001965454114573275</v>
+        <v>0.000184249111878805</v>
       </c>
       <c r="L156">
-        <v>23.77017451565911</v>
+        <v>60.10422642056165</v>
       </c>
       <c r="M156">
-        <v>30.73054050070626</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>60.52706212771337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.0001669769844738</v>
+        <v>0.0001730124204186</v>
       </c>
       <c r="C157">
-        <v>0.0001671373320277</v>
+        <v>0.0001737424609018</v>
       </c>
       <c r="D157">
-        <v>0.0001620123075554</v>
+        <v>0.0001715717662591</v>
       </c>
       <c r="E157">
-        <v>0.0001630659971851</v>
+        <v>0.0001737424609018</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0.0001694962211563171</v>
+        <v>0.0001713396471218081</v>
       </c>
       <c r="H157">
-        <v>0.000169600153458255</v>
+        <v>0.00017204951436718</v>
       </c>
       <c r="I157">
-        <v>0.0001703812173217933</v>
+        <v>0.0001692888651935067</v>
       </c>
       <c r="J157">
-        <v>0.000196101975506702</v>
+        <v>0.0001841099509387123</v>
       </c>
       <c r="L157">
-        <v>13.1774769075744</v>
+        <v>63.51658809458007</v>
       </c>
       <c r="M157">
-        <v>21.59748882221082</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>62.60662402141054</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.0001630365877645</v>
+        <v>0.0001741808955557</v>
       </c>
       <c r="C158">
-        <v>0.0001651272323215</v>
+        <v>0.0001775627461029</v>
       </c>
       <c r="D158">
-        <v>0.0001619908725842</v>
+        <v>0.0001741808955557</v>
       </c>
       <c r="E158">
-        <v>0.0001619908725842</v>
+        <v>0.0001764869957696</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0.0001688139167406701</v>
+        <v>0.000171807587907971</v>
       </c>
       <c r="H158">
-        <v>0.00016930756100914</v>
+        <v>0.000172440929600205</v>
       </c>
       <c r="I158">
-        <v>0.00016994404965463</v>
+        <v>0.00016974797035794</v>
       </c>
       <c r="J158">
-        <v>0.0001956501728189867</v>
+        <v>0.0001840089846450817</v>
       </c>
       <c r="L158">
-        <v>11.62848235667828</v>
+        <v>73.76393413162566</v>
       </c>
       <c r="M158">
-        <v>19.90475970916697</v>
-      </c>
-      <c r="N158" t="s">
+        <v>69.60623084035232</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.0001620401599211</v>
+        <v>0.0001765352790243</v>
       </c>
       <c r="C159">
-        <v>0.0001642556599108</v>
+        <v>0.0001775207347236</v>
       </c>
       <c r="D159">
-        <v>0.0001620401599211</v>
+        <v>0.0001763655454851</v>
       </c>
       <c r="E159">
-        <v>0.000163838660228</v>
+        <v>0.0001774597767507</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>0.0001683616206940637</v>
+        <v>0.00017232142325731</v>
       </c>
       <c r="H159">
-        <v>0.00016894336295076</v>
+        <v>0.00017285131179954</v>
       </c>
       <c r="I159">
-        <v>0.00016959051378454</v>
+        <v>0.0001701820491385633</v>
       </c>
       <c r="J159">
-        <v>0.0001952288282813578</v>
+        <v>0.0001839222401696594</v>
       </c>
       <c r="L159">
-        <v>27.99407207212062</v>
+        <v>76.40639793243723</v>
       </c>
       <c r="M159">
-        <v>30.05178585150368</v>
-      </c>
-      <c r="N159" t="s">
+        <v>71.63308316153332</v>
+      </c>
+      <c r="O159" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.0001638586254557</v>
+        <v>0.0001772866817191</v>
       </c>
       <c r="C160">
-        <v>0.0001645020529394</v>
+        <v>0.0001792892435332</v>
       </c>
       <c r="D160">
-        <v>0.0001626464072614</v>
+        <v>0.0001769464142853</v>
       </c>
       <c r="E160">
-        <v>0.0001626464072614</v>
+        <v>0.0001784191699698</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0.0001678420558365488</v>
+        <v>0.0001728757638675364</v>
       </c>
       <c r="H160">
-        <v>0.00016854712448543</v>
+        <v>0.000173207565967395</v>
       </c>
       <c r="I160">
-        <v>0.0001691563772813167</v>
+        <v>0.0001706625621105533</v>
       </c>
       <c r="J160">
-        <v>0.0001947972730360603</v>
+        <v>0.0001838493518226414</v>
       </c>
       <c r="L160">
-        <v>24.67682713331741</v>
+        <v>78.77794557612684</v>
       </c>
       <c r="M160">
-        <v>27.62035273439281</v>
-      </c>
-      <c r="N160" t="s">
+        <v>73.50935732142786</v>
+      </c>
+      <c r="O160" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.0001628592726774</v>
+        <v>0.0001784117339411</v>
       </c>
       <c r="C161">
-        <v>0.0001629761536605</v>
+        <v>0.0001785460626706</v>
       </c>
       <c r="D161">
-        <v>0.0001585862337378</v>
+        <v>0.0001773963449522</v>
       </c>
       <c r="E161">
-        <v>0.0001585862337378</v>
+        <v>0.0001779153972165</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0.0001670006174639353</v>
+        <v>0.0001733339123538058</v>
       </c>
       <c r="H161">
-        <v>0.00016795472110965</v>
+        <v>0.00017354982410318</v>
       </c>
       <c r="I161">
-        <v>0.0001686369471523033</v>
+        <v>0.0001711178988140067</v>
       </c>
       <c r="J161">
-        <v>0.0001943176566215138</v>
+        <v>0.0001837707563973945</v>
       </c>
       <c r="L161">
-        <v>16.97187440491012</v>
+        <v>74.36242704069167</v>
       </c>
       <c r="M161">
-        <v>21.30009881132819</v>
-      </c>
-      <c r="N161" t="s">
+        <v>70.85901491142015</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.0001590639003552</v>
+        <v>0.0001777037832653</v>
       </c>
       <c r="C162">
-        <v>0.0001610660838196</v>
+        <v>0.0001784658816177</v>
       </c>
       <c r="D162">
-        <v>0.0001583779230713</v>
+        <v>0.0001774966222001</v>
       </c>
       <c r="E162">
-        <v>0.000160394134582</v>
+        <v>0.0001784658816177</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.000166400028111032</v>
+        <v>0.0001738004550141598</v>
       </c>
       <c r="H162">
-        <v>0.00016743219966878</v>
+        <v>0.00017390154753223</v>
       </c>
       <c r="I162">
-        <v>0.0001681589851310534</v>
+        <v>0.0001715789039735066</v>
       </c>
       <c r="J162">
-        <v>0.0001938683384488051</v>
+        <v>0.0001837004931552793</v>
       </c>
       <c r="L162">
-        <v>28.20179715240273</v>
+        <v>76.01506766333998</v>
       </c>
       <c r="M162">
-        <v>29.0818509623479</v>
-      </c>
-      <c r="N162" t="s">
+        <v>72.04509078563089</v>
+      </c>
+      <c r="O162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.0001605297584319</v>
+        <v>0.0001785952190402</v>
       </c>
       <c r="C163">
-        <v>0.0001620903785806</v>
+        <v>0.0001793123956304</v>
       </c>
       <c r="D163">
-        <v>0.0001596021465957</v>
+        <v>0.0001768720248946</v>
       </c>
       <c r="E163">
-        <v>0.0001606510195415</v>
+        <v>0.0001779371814336</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0.0001658773909683473</v>
+        <v>0.0001741765210522907</v>
       </c>
       <c r="H163">
-        <v>0.00016694075384288</v>
+        <v>0.000174252047872805</v>
       </c>
       <c r="I163">
-        <v>0.00016788105713198</v>
+        <v>0.0001720909417295833</v>
       </c>
       <c r="J163">
-        <v>0.0001934283739599666</v>
+        <v>0.0001836241579006875</v>
       </c>
       <c r="L163">
-        <v>29.72126687750228</v>
+        <v>71.06539311400816</v>
       </c>
       <c r="M163">
-        <v>30.13888140572204</v>
-      </c>
-      <c r="N163" t="s">
+        <v>69.13468619193813</v>
+      </c>
+      <c r="O163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.0001603821874596</v>
+        <v>0.0001778290315996</v>
       </c>
       <c r="C164">
-        <v>0.0001632691855775</v>
+        <v>0.0001786982466001</v>
       </c>
       <c r="D164">
-        <v>0.0001602161646587</v>
+        <v>0.0001773473486537</v>
       </c>
       <c r="E164">
-        <v>0.0001632691855775</v>
+        <v>0.0001780971360858</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.0001656402813873612</v>
+        <v>0.0001745329406007915</v>
       </c>
       <c r="H164">
-        <v>0.000166588932188405</v>
+        <v>0.00017459650043741</v>
       </c>
       <c r="I164">
-        <v>0.0001676844161313733</v>
+        <v>0.0001725747647772233</v>
       </c>
       <c r="J164">
-        <v>0.0001930289145111922</v>
+        <v>0.0001835509523137354</v>
       </c>
       <c r="L164">
-        <v>43.44470121358733</v>
+        <v>71.69274986661007</v>
       </c>
       <c r="M164">
-        <v>39.96103053198447</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>69.535657120774</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.0001633594511076</v>
+        <v>0.0001786318607628</v>
       </c>
       <c r="C165">
-        <v>0.000164820725331</v>
+        <v>0.0001798990560928</v>
       </c>
       <c r="D165">
-        <v>0.0001623183343326</v>
+        <v>0.0001755390985636</v>
       </c>
       <c r="E165">
-        <v>0.000162458862178</v>
+        <v>0.0001755390985636</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.0001653510614592374</v>
+        <v>0.0001746244095065014</v>
       </c>
       <c r="H165">
-        <v>0.00016616985594732</v>
+        <v>0.00017480093956686</v>
       </c>
       <c r="I165">
-        <v>0.0001675013268443533</v>
+        <v>0.00017296886362595</v>
       </c>
       <c r="J165">
-        <v>0.0001926240131557857</v>
+        <v>0.0001834448350455217</v>
       </c>
       <c r="L165">
-        <v>40.67889499001074</v>
+        <v>51.57435415843342</v>
       </c>
       <c r="M165">
-        <v>38.17222022759331</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>56.82240836356102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.0001624559517949</v>
+        <v>0.0001760949671734</v>
       </c>
       <c r="C166">
-        <v>0.0001644315925659</v>
+        <v>0.0001765809574862</v>
       </c>
       <c r="D166">
-        <v>0.0001623903081053</v>
+        <v>0.0001750778028508</v>
       </c>
       <c r="E166">
-        <v>0.0001635421504033</v>
+        <v>0.0001758964936016</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.0001651866149996067</v>
+        <v>0.0001747400535151467</v>
       </c>
       <c r="H166">
-        <v>0.000165812120394495</v>
+        <v>0.00017499344321544</v>
       </c>
       <c r="I166">
-        <v>0.0001673105003040067</v>
+        <v>0.00017335433755452</v>
       </c>
       <c r="J166">
-        <v>0.0001922388229206535</v>
+        <v>0.0001833448570131519</v>
       </c>
       <c r="L166">
-        <v>45.86238449006218</v>
+        <v>53.62005654873882</v>
       </c>
       <c r="M166">
-        <v>41.91554779254142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>57.97838229522181</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.0001637456589378</v>
+        <v>0.0001759722363203</v>
       </c>
       <c r="C167">
-        <v>0.0001655394007684</v>
+        <v>0.0001764865446602</v>
       </c>
       <c r="D167">
-        <v>0.0001634340878808</v>
+        <v>0.0001758392318151</v>
       </c>
       <c r="E167">
-        <v>0.0001646792225074</v>
+        <v>0.0001763914624461</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0.0001651404884094061</v>
+        <v>0.0001748901815997788</v>
       </c>
       <c r="H167">
-        <v>0.000165506016492095</v>
+        <v>0.00017517520027462</v>
       </c>
       <c r="I167">
-        <v>0.0001671353272588733</v>
+        <v>0.0001737866293599533</v>
       </c>
       <c r="J167">
-        <v>0.0001918737951006104</v>
+        <v>0.0001832527590718664</v>
       </c>
       <c r="L167">
-        <v>50.92600246093394</v>
+        <v>56.48420683452846</v>
       </c>
       <c r="M167">
-        <v>45.63614849965101</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>59.59189410229753</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.0001647038006922</v>
+        <v>0.0001764258049661</v>
       </c>
       <c r="C168">
-        <v>0.0001650286430958</v>
+        <v>0.0001764650805853</v>
       </c>
       <c r="D168">
-        <v>0.000163308402989</v>
+        <v>0.0001740531151881</v>
       </c>
       <c r="E168">
-        <v>0.0001640782720642</v>
+        <v>0.0001746824855217</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0.0001650439232871146</v>
+        <v>0.0001748713001381353</v>
       </c>
       <c r="H168">
-        <v>0.0001651765996939</v>
+        <v>0.000175261825643185</v>
       </c>
       <c r="I168">
-        <v>0.0001670098456087967</v>
+        <v>0.00017398742250704</v>
       </c>
       <c r="J168">
-        <v>0.0001915056424776116</v>
+        <v>0.0001831392455149106</v>
       </c>
       <c r="L168">
-        <v>48.24312745020113</v>
+        <v>45.55654544523826</v>
       </c>
       <c r="M168">
-        <v>44.03088646828942</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>52.14680194131655</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.0001642172865103</v>
+        <v>0.0001747744827298</v>
       </c>
       <c r="C169">
-        <v>0.0001647088356548</v>
+        <v>0.0001776608987711</v>
       </c>
       <c r="D169">
-        <v>0.0001624407595954</v>
+        <v>0.0001743043831083</v>
       </c>
       <c r="E169">
-        <v>0.0001627138408366</v>
+        <v>0.0001774999109329</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0.0001648320976097951</v>
+        <v>0.0001751102647558412</v>
       </c>
       <c r="H169">
-        <v>0.0001647640827286</v>
+        <v>0.00017544899092166</v>
       </c>
       <c r="I169">
-        <v>0.0001667295529234967</v>
+        <v>0.0001742623484460033</v>
       </c>
       <c r="J169">
-        <v>0.0001911242941115055</v>
+        <v>0.000183064552341639</v>
       </c>
       <c r="L169">
-        <v>42.52132155758035</v>
+        <v>59.93309685957177</v>
       </c>
       <c r="M169">
-        <v>40.54382693183062</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>60.83421769943483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.0001631466875551</v>
+        <v>0.0001778369769454</v>
       </c>
       <c r="C170">
-        <v>0.0001646009768592</v>
+        <v>0.0001789272791938</v>
       </c>
       <c r="D170">
-        <v>0.0001619889371795</v>
+        <v>0.000176573783392</v>
       </c>
       <c r="E170">
-        <v>0.000164437413332</v>
+        <v>0.0001775707351043</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0.0001647962172209047</v>
+        <v>0.0001753339438784283</v>
       </c>
       <c r="H170">
-        <v>0.00016444932334702</v>
+        <v>0.000175623992254195</v>
       </c>
       <c r="I170">
-        <v>0.0001665250941489633</v>
+        <v>0.00017447157006239</v>
       </c>
       <c r="J170">
-        <v>0.0001907708254919094</v>
+        <v>0.0001829917865504159</v>
       </c>
       <c r="L170">
-        <v>50.81195404301882</v>
+        <v>60.23008920881313</v>
       </c>
       <c r="M170">
-        <v>46.3264494892114</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>61.0257627883346</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>0.0001643025752855</v>
+        <v>0.0001775917189661</v>
       </c>
       <c r="C171">
-        <v>0.0001646688324399</v>
+        <v>0.0001775917189661</v>
       </c>
       <c r="D171">
-        <v>0.0001636201632209</v>
+        <v>0.0001736885606078</v>
       </c>
       <c r="E171">
-        <v>0.0001640037808101</v>
+        <v>0.0001745657500578</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0.0001647241775471951</v>
+        <v>0.000175264108076553</v>
       </c>
       <c r="H171">
-        <v>0.00016410400639865</v>
+        <v>0.00017568554394523</v>
       </c>
       <c r="I171">
-        <v>0.00016631074346752</v>
+        <v>0.0001745880872476233</v>
       </c>
       <c r="J171">
-        <v>0.0001904162950987729</v>
+        <v>0.0001828801834180634</v>
       </c>
       <c r="L171">
-        <v>48.81892373104767</v>
+        <v>44.48924939086642</v>
       </c>
       <c r="M171">
-        <v>45.13702253529954</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>49.87944701894148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>0.0001640107657294</v>
+        <v>0.0001745657500578</v>
       </c>
       <c r="C172">
-        <v>0.000164276061696</v>
+        <v>0.0001748136128298</v>
       </c>
       <c r="D172">
-        <v>0.0001631030900171</v>
+        <v>0.000171741558006</v>
       </c>
       <c r="E172">
-        <v>0.0001642552961129</v>
+        <v>0.0001724227477097</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0.0001646815519622592</v>
+        <v>0.0001750058025886573</v>
       </c>
       <c r="H172">
-        <v>0.000163800856535035</v>
+        <v>0.00017572768992971</v>
       </c>
       <c r="I172">
-        <v>0.0001660911012246367</v>
+        <v>0.0001746211317367233</v>
       </c>
       <c r="J172">
-        <v>0.0001900697918009467</v>
+        <v>0.0001827416743358335</v>
       </c>
       <c r="L172">
-        <v>50.09617668847254</v>
+        <v>36.77784431091897</v>
       </c>
       <c r="M172">
-        <v>46.00299813799504</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>43.74331329072225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.0001644359726924</v>
+        <v>0.0001721640292089</v>
       </c>
       <c r="C173">
-        <v>0.0001648361940169</v>
+        <v>0.0001732632663333</v>
       </c>
       <c r="D173">
-        <v>0.0001638492249185</v>
+        <v>0.0001717307750368</v>
       </c>
       <c r="E173">
-        <v>0.0001646357268327</v>
+        <v>0.0001731025258777</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>0.0001646773860413902</v>
+        <v>0.0001748327774331157</v>
       </c>
       <c r="H173">
-        <v>0.00016359014625772</v>
+        <v>0.00017576469326735</v>
       </c>
       <c r="I173">
-        <v>0.00016589629425041</v>
+        <v>0.0001746936434452433</v>
       </c>
       <c r="J173">
-        <v>0.0001897329167682548</v>
+        <v>0.0001826140034953284</v>
       </c>
       <c r="L173">
-        <v>52.12901821978108</v>
+        <v>40.46065647228481</v>
       </c>
       <c r="M173">
-        <v>47.35652439861064</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>46.01212607060138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.0001646438176976</v>
+        <v>0.0001730871445033</v>
       </c>
       <c r="C174">
-        <v>0.0001647834433242</v>
+        <v>0.0001732373784761</v>
       </c>
       <c r="D174">
-        <v>0.0001625760487513</v>
+        <v>0.0001725576585158</v>
       </c>
       <c r="E174">
-        <v>0.0001625760487513</v>
+        <v>0.0001725576585158</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0.0001644863553786547</v>
+        <v>0.0001746259484406324</v>
       </c>
       <c r="H174">
-        <v>0.00016331581791741</v>
+        <v>0.000175710988696605</v>
       </c>
       <c r="I174">
-        <v>0.0001656386419198866</v>
+        <v>0.00017473862923598</v>
       </c>
       <c r="J174">
-        <v>0.0001893732231521362</v>
+        <v>0.000182480806873083</v>
       </c>
       <c r="L174">
-        <v>41.76633230069702</v>
+        <v>38.44142612948735</v>
       </c>
       <c r="M174">
-        <v>41.31783067944555</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>44.46422396413418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.0001631319755688</v>
+        <v>0.0001726617920212</v>
       </c>
       <c r="C175">
-        <v>0.0001639607653487</v>
+        <v>0.0001754992408677</v>
       </c>
       <c r="D175">
-        <v>0.0001621696574147</v>
+        <v>0.0001720628788461</v>
       </c>
       <c r="E175">
-        <v>0.0001635824446566</v>
+        <v>0.0001747863861965</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0.0001644041816766498</v>
+        <v>0.0001746405336911658</v>
       </c>
       <c r="H175">
-        <v>0.000163125893595805</v>
+        <v>0.00017583027874929</v>
       </c>
       <c r="I175">
-        <v>0.00016539671050845</v>
+        <v>0.00017484983157671</v>
       </c>
       <c r="J175">
-        <v>0.0001890316234369635</v>
+        <v>0.0001823788940164395</v>
       </c>
       <c r="L175">
-        <v>47.5028763734339</v>
+        <v>49.93824619553789</v>
       </c>
       <c r="M175">
-        <v>45.00776590511211</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>51.63193947731372</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.0001638528774492</v>
+        <v>0.0001745647314237</v>
       </c>
       <c r="C176">
-        <v>0.0001638528774492</v>
+        <v>0.0001771894167177</v>
       </c>
       <c r="D176">
-        <v>0.0001625387812964</v>
+        <v>0.0001738205755827</v>
       </c>
       <c r="E176">
-        <v>0.0001637161331018</v>
+        <v>0.0001771894167177</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0.0001643416318062089</v>
+        <v>0.0001748722503299417</v>
       </c>
       <c r="H176">
-        <v>0.00016295608511422</v>
+        <v>0.000176036433549545</v>
       </c>
       <c r="I176">
-        <v>0.0001651640195631833</v>
+        <v>0.0001750212647796333</v>
       </c>
       <c r="J176">
-        <v>0.000188696318929213</v>
+        <v>0.0001823101592177808</v>
       </c>
       <c r="L176">
-        <v>48.26450339978949</v>
+        <v>59.18455723633435</v>
       </c>
       <c r="M176">
-        <v>45.49803491058997</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>57.93581156688953</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.0001637190289329</v>
+        <v>0.0001770789676811</v>
       </c>
       <c r="C177">
-        <v>0.0001643322757445</v>
+        <v>0.0001770789676811</v>
       </c>
       <c r="D177">
-        <v>0.0001635039807297</v>
+        <v>0.0001758318976499</v>
       </c>
       <c r="E177">
-        <v>0.0001643322757445</v>
+        <v>0.0001765293418429</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0.0001643407812551444</v>
+        <v>0.0001750228950129379</v>
       </c>
       <c r="H177">
-        <v>0.00016301939904219</v>
+        <v>0.0001761757775966</v>
       </c>
       <c r="I177">
-        <v>0.00016494838540282</v>
+        <v>0.0001751470321323133</v>
       </c>
       <c r="J177">
-        <v>0.0001883736163704751</v>
+        <v>0.0001822335921002327</v>
       </c>
       <c r="L177">
-        <v>51.88390774833266</v>
+        <v>55.98896529107847</v>
       </c>
       <c r="M177">
-        <v>47.80750942508946</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>55.78508396511549</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.0001643091236473</v>
+        <v>0.000176571382326</v>
       </c>
       <c r="C178">
-        <v>0.0001647041208343</v>
+        <v>0.0001776372664608</v>
       </c>
       <c r="D178">
-        <v>0.0001634227082831</v>
+        <v>0.0001764096523402</v>
       </c>
       <c r="E178">
-        <v>0.0001634227082831</v>
+        <v>0.0001764465705491</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>0.0001642573200758676</v>
+        <v>0.0001751523200616799</v>
       </c>
       <c r="H178">
-        <v>0.000163090990827135</v>
+        <v>0.000176173756335575</v>
       </c>
       <c r="I178">
-        <v>0.0001647069220779867</v>
+        <v>0.00017526358521227</v>
       </c>
       <c r="J178">
-        <v>0.0001880431407666688</v>
+        <v>0.0001821569428081647</v>
       </c>
       <c r="L178">
-        <v>46.48320006415774</v>
+        <v>55.56572310448935</v>
       </c>
       <c r="M178">
-        <v>44.79018374521429</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15">
+        <v>55.50682069059497</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.0001637686509639</v>
+        <v>0.0001764275075402</v>
       </c>
       <c r="C179">
-        <v>0.0001686967152636</v>
+        <v>0.0001771884126355</v>
       </c>
       <c r="D179">
-        <v>0.0001634678919799</v>
+        <v>0.0001760571467457</v>
       </c>
       <c r="E179">
-        <v>0.0001686586911091</v>
+        <v>0.0001767621433828</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>0.0001646574447152524</v>
+        <v>0.0001752986676363272</v>
       </c>
       <c r="H179">
-        <v>0.00016333199237119</v>
+        <v>0.00017613887466718</v>
       </c>
       <c r="I179">
-        <v>0.0001646300724435367</v>
+        <v>0.0001753637698129167</v>
       </c>
       <c r="J179">
-        <v>0.0001877863930890851</v>
+        <v>0.00018208548851114</v>
       </c>
       <c r="L179">
-        <v>68.03277627273602</v>
+        <v>56.96118879487164</v>
       </c>
       <c r="M179">
-        <v>60.31690066032765</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>56.39977871251829</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.0001691339421086</v>
+        <v>0.0001767575304256</v>
       </c>
       <c r="C180">
-        <v>0.0001699294662103</v>
+        <v>0.0001768727379385</v>
       </c>
       <c r="D180">
-        <v>0.0001680601853877</v>
+        <v>0.0001760443556122</v>
       </c>
       <c r="E180">
-        <v>0.000169252132764</v>
+        <v>0.0001768639194779</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>0.0001650751436287749</v>
+        <v>0.0001754409632582884</v>
       </c>
       <c r="H180">
-        <v>0.00016366227864632</v>
+        <v>0.000176061112142585</v>
       </c>
       <c r="I180">
-        <v>0.00016458072350355</v>
+        <v>0.00017545687684706</v>
       </c>
       <c r="J180">
-        <v>0.0001875409061973621</v>
+        <v>0.0001820163286563951</v>
       </c>
       <c r="L180">
-        <v>69.59391479846389</v>
+        <v>57.4460744900857</v>
       </c>
       <c r="M180">
-        <v>61.63387046913139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>56.70159340350396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.000169315826497</v>
+        <v>0.0001768071524566</v>
       </c>
       <c r="C181">
-        <v>0.0001719480060273</v>
+        <v>0.0001771653769537</v>
       </c>
       <c r="D181">
-        <v>0.000169315826497</v>
+        <v>0.0001746769703458</v>
       </c>
       <c r="E181">
-        <v>0.0001712940866127</v>
+        <v>0.0001768254151102</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>0.000165640502081859</v>
+        <v>0.0001755668225175531</v>
       </c>
       <c r="H181">
-        <v>0.000164297671290065</v>
+        <v>0.00017600661303727</v>
       </c>
       <c r="I181">
-        <v>0.0001645935223980567</v>
+        <v>0.0001755732334761633</v>
       </c>
       <c r="J181">
-        <v>0.0001873257165339891</v>
+        <v>0.0001819475748345912</v>
       </c>
       <c r="L181">
-        <v>74.42806865072762</v>
+        <v>57.17193052069661</v>
       </c>
       <c r="M181">
-        <v>65.83532878279266</v>
-      </c>
-      <c r="O181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15">
+        <v>56.5421257113201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.0001712429511826</v>
+        <v>0.000176939603989</v>
       </c>
       <c r="C182">
-        <v>0.0001718025305308</v>
+        <v>0.0001779231679392</v>
       </c>
       <c r="D182">
-        <v>0.0001708228955976</v>
+        <v>0.000176939603989</v>
       </c>
       <c r="E182">
-        <v>0.0001708547933958</v>
+        <v>0.0001777535508153</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.0001661145285649445</v>
+        <v>0.0001757656159991664</v>
       </c>
       <c r="H182">
-        <v>0.000164820704230755</v>
+        <v>0.00017597099649715</v>
       </c>
       <c r="I182">
-        <v>0.0001646114057317433</v>
+        <v>0.0001757790242360034</v>
       </c>
       <c r="J182">
-        <v>0.000187107558611629</v>
+        <v>0.0001818920248475807</v>
       </c>
       <c r="L182">
-        <v>71.6702850204346</v>
+        <v>62.07929934347272</v>
       </c>
       <c r="M182">
-        <v>64.20632116352061</v>
-      </c>
-      <c r="O182" t="s">
-        <v>195</v>
+        <v>59.49897778398949</v>
       </c>
     </row>
   </sheetData>
